--- a/aggcandidatepackages.xlsx
+++ b/aggcandidatepackages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rschfs1x\userRS\K-Q\lr397_RS\Documents\AEA_workspace\Statapackagesearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E861BAC2-3465-4583-A1E5-6A806DA05C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC916BEB-87F4-4CA9-AD3A-53C6F4AB3161}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="269">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -772,9 +772,6 @@
     <t>Package rank</t>
   </si>
   <si>
-    <t>N=50</t>
-  </si>
-  <si>
     <t>Most common false positives explained:</t>
   </si>
   <si>
@@ -808,17 +805,35 @@
     <t>Prob false pos (based on rank)</t>
   </si>
   <si>
-    <t>false negatives (used, but not found)</t>
-  </si>
-  <si>
     <t>&lt;- false negatives</t>
+  </si>
+  <si>
+    <t>missings</t>
+  </si>
+  <si>
+    <t>reclink</t>
+  </si>
+  <si>
+    <t>neoclassical</t>
+  </si>
+  <si>
+    <t>ppmlhdfe</t>
+  </si>
+  <si>
+    <t>ppml</t>
+  </si>
+  <si>
+    <t>conf data</t>
+  </si>
+  <si>
+    <t>N=53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -833,6 +848,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -852,10 +872,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -863,9 +884,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -906,12 +931,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14F3A26A-DDA6-4BB7-9737-E8CEF0846FBD}" name="Table1" displayName="Table1" ref="G1:K244" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="G1:K244" xr:uid="{7D5C5C3B-A892-4F20-9B92-DE92768719CC}"/>
-  <sortState ref="G2:K244">
-    <sortCondition descending="1" ref="K1:K244"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14F3A26A-DDA6-4BB7-9737-E8CEF0846FBD}" name="Table1" displayName="Table1" ref="G1:J249" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="G1:J249" xr:uid="{7D5C5C3B-A892-4F20-9B92-DE92768719CC}"/>
+  <sortState ref="G2:J249">
+    <sortCondition descending="1" ref="J1:J249"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3F5616B5-928C-4B7D-95B2-F0267A9715F1}" name="Package name"/>
     <tableColumn id="3" xr3:uid="{9D216890-4C32-4F04-B7DF-37CFD13220B4}" name="Package rank" dataDxfId="1">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Package name]],A1:D915,2,FALSE)</calculatedColumnFormula>
@@ -919,7 +944,6 @@
     <tableColumn id="4" xr3:uid="{BD085053-72B8-49F7-AC90-2FB68E95293E}" name="Prob false pos (based on rank)" dataDxfId="0">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Package name]],A1:D915,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AA9B645B-ED61-461F-B4A8-B1D3353EEDB9}" name="false negatives (used, but not found)"/>
     <tableColumn id="2" xr3:uid="{24C796D6-48C9-4EC4-951F-C53038113E40}" name="# of false positives">
       <calculatedColumnFormula>COUNTIFS(A2:A915,G2,D2:D915,0)</calculatedColumnFormula>
     </tableColumn>
@@ -1225,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N915"/>
+  <dimension ref="A1:M954"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1238,12 +1262,12 @@
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="4"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="10" width="15.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1263,17 +1287,14 @@
         <v>249</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1286,7 +1307,7 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>67</v>
       </c>
       <c r="H2" s="4">
@@ -1297,19 +1318,15 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A1:D915,3,FALSE)</f>
         <v>0.22536617517471313</v>
       </c>
-      <c r="J2" s="4" t="e">
-        <f>COUNTIFS(#REF!,F2,C2:C915,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K2">
+      <c r="J2">
         <f>COUNTIFS(A2:A915,G2,D2:D915,0)</f>
         <v>31</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="M2" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1322,7 +1339,7 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="4">
@@ -1333,12 +1350,12 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A2:D916,3,FALSE)</f>
         <v>0.11384820193052292</v>
       </c>
-      <c r="K3" s="4">
+      <c r="J3" s="4">
         <f>COUNTIFS(A3:A916,G3,D3:D916,0)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1351,7 +1368,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="4">
@@ -1362,15 +1379,15 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A3:D917,3,FALSE)</f>
         <v>0.34087881445884705</v>
       </c>
-      <c r="K4" s="4">
+      <c r="J4" s="4">
         <f>COUNTIFS(A4:A917,G4,D4:D917,0)</f>
         <v>28</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="M4" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1383,26 +1400,26 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
+      <c r="G5" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="H5" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A4:D918,2,FALSE)</f>
-        <v>678</v>
+        <v>2318</v>
       </c>
       <c r="I5" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A4:D918,3,FALSE)</f>
-        <v>0.22569906711578369</v>
-      </c>
-      <c r="K5" s="4">
+        <v>0.77163779735565186</v>
+      </c>
+      <c r="J5" s="4">
         <f>COUNTIFS(A5:A918,G5,D5:D918,0)</f>
         <v>27</v>
       </c>
-      <c r="N5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1415,26 +1432,26 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>37</v>
+      <c r="G6" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="H6" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A5:D919,2,FALSE)</f>
-        <v>2318</v>
+        <v>678</v>
       </c>
       <c r="I6" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A5:D919,3,FALSE)</f>
-        <v>0.77163779735565186</v>
-      </c>
-      <c r="K6" s="4">
+        <v>0.22569906711578369</v>
+      </c>
+      <c r="J6" s="4">
         <f>COUNTIFS(A6:A919,G6,D6:D919,0)</f>
         <v>27</v>
       </c>
-      <c r="N6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="M6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1447,7 +1464,7 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="4">
@@ -1458,15 +1475,15 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A6:D920,3,FALSE)</f>
         <v>0.20905458927154541</v>
       </c>
-      <c r="K7" s="4">
+      <c r="J7" s="4">
         <f>COUNTIFS(A7:A920,G7,D7:D920,0)</f>
         <v>26</v>
       </c>
-      <c r="N7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1479,7 +1496,7 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H8" s="4">
@@ -1490,15 +1507,15 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A7:D921,3,FALSE)</f>
         <v>0.54593873023986816</v>
       </c>
-      <c r="K8" s="4">
+      <c r="J8" s="4">
         <f>COUNTIFS(A8:A921,G8,D8:D921,0)</f>
         <v>22</v>
       </c>
-      <c r="N8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="M8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1528,7 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="4">
@@ -1522,15 +1539,15 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A8:D922,3,FALSE)</f>
         <v>0.49167776107788086</v>
       </c>
-      <c r="K9" s="4">
+      <c r="J9" s="4">
         <f>COUNTIFS(A9:A922,G9,D9:D922,0)</f>
         <v>21</v>
       </c>
-      <c r="N9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1543,7 +1560,7 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="4">
@@ -1554,15 +1571,15 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A9:D923,3,FALSE)</f>
         <v>0.38415446877479553</v>
       </c>
-      <c r="K10" s="4">
+      <c r="J10" s="4">
         <f>COUNTIFS(A10:A923,G10,D10:D923,0)</f>
         <v>15</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1575,7 +1592,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="4">
@@ -1586,15 +1603,15 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A10:D924,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="J11" s="4">
         <f>COUNTIFS(A11:A924,G11,D11:D924,0)</f>
         <v>14</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="M11" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1607,26 +1624,26 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>6</v>
+      <c r="G12" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="H12" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A11:D925,2,FALSE)</f>
-        <v>8</v>
+        <v>1419</v>
       </c>
       <c r="I12" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A11:D925,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
+        <v>0.47237017750740051</v>
+      </c>
+      <c r="J12" s="4">
         <f>COUNTIFS(A12:A925,G12,D12:D925,0)</f>
         <v>13</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1639,7 +1656,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="4">
@@ -1650,15 +1667,15 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A12:D926,3,FALSE)</f>
         <v>0.22802929580211639</v>
       </c>
-      <c r="K13" s="4">
+      <c r="J13" s="4">
         <f>COUNTIFS(A13:A926,G13,D13:D926,0)</f>
         <v>13</v>
       </c>
-      <c r="N13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1671,23 +1688,23 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>34</v>
+      <c r="G14" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="H14" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A13:D927,2,FALSE)</f>
-        <v>1419</v>
+        <v>587</v>
       </c>
       <c r="I14" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A13:D927,3,FALSE)</f>
-        <v>0.47237017750740051</v>
-      </c>
-      <c r="K14" s="4">
+        <v>0.19540612399578094</v>
+      </c>
+      <c r="J14" s="4">
         <f>COUNTIFS(A14:A927,G14,D14:D927,0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1700,7 +1717,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H15" s="4">
@@ -1711,12 +1728,12 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A14:D928,3,FALSE)</f>
         <v>0.47836217284202576</v>
       </c>
-      <c r="K15" s="4">
+      <c r="J15" s="4">
         <f>COUNTIFS(A15:A928,G15,D15:D928,0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1724,25 +1741,26 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>40</v>
+        <v>261</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="H16" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A15:D929,2,FALSE)</f>
-        <v>587</v>
+        <v>8</v>
       </c>
       <c r="I16" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A15:D929,3,FALSE)</f>
-        <v>0.19540612399578094</v>
-      </c>
-      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
         <f>COUNTIFS(A16:A929,G16,D16:D929,0)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1755,23 +1773,24 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>7</v>
+      <c r="G17" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="H17" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A16:D930,2,FALSE)</f>
-        <v>84</v>
+        <v>1829</v>
       </c>
       <c r="I17" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A16:D930,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
+        <v>0.60885489000000004</v>
+      </c>
+      <c r="J17" s="4">
         <f>COUNTIFS(A17:A930,G17,D17:D930,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>11</v>
+      </c>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1784,7 +1803,7 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="4">
@@ -1795,12 +1814,13 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A17:D931,3,FALSE)</f>
         <v>0.49500665068626404</v>
       </c>
-      <c r="K18" s="4">
+      <c r="J18" s="4">
         <f>COUNTIFS(A18:A931,G18,D18:D931,0)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1813,23 +1833,24 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>60</v>
+      <c r="G19" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="H19" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A18:D932,2,FALSE)</f>
-        <v>1829</v>
+        <v>512</v>
       </c>
       <c r="I19" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A18:D932,3,FALSE)</f>
-        <v>0.60885489000000004</v>
-      </c>
-      <c r="K19" s="4">
+        <v>0.17043940722942352</v>
+      </c>
+      <c r="J19" s="4">
         <f>COUNTIFS(A19:A932,G19,D19:D932,0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>10</v>
+      </c>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1842,23 +1863,24 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>115</v>
+      <c r="G20" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="H20" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A19:D933,2,FALSE)</f>
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="I20" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A19:D933,3,FALSE)</f>
-        <v>0.17043940722942352</v>
-      </c>
-      <c r="K20" s="4">
+        <v>0.16644473373889923</v>
+      </c>
+      <c r="J20" s="4">
         <f>COUNTIFS(A20:A933,G20,D20:D933,0)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1871,23 +1893,24 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>5</v>
+      <c r="G21" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="H21" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A20:D934,2,FALSE)</f>
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="I21" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A20:D934,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="4">
+      <c r="J21" s="4">
         <f>COUNTIFS(A21:A934,G21,D21:D934,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>10</v>
+      </c>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1900,23 +1923,24 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="8">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A21:D935,2,FALSE)</f>
         <v>1744</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="8">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A21:D935,3,FALSE)</f>
         <v>0.58055925369262695</v>
       </c>
-      <c r="K22" s="4">
+      <c r="J22" s="4">
         <f>COUNTIFS(A22:A935,G22,D22:D935,0)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1929,23 +1953,24 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>88</v>
+      <c r="G23" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="H23" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A22:D936,2,FALSE)</f>
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="I23" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A22:D936,3,FALSE)</f>
-        <v>0.16644473373889923</v>
-      </c>
-      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
         <f>COUNTIFS(A23:A936,G23,D23:D936,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>8</v>
+      </c>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1958,23 +1983,24 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="9">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A23:D937,2,FALSE)</f>
         <v>92</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="9">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A23:D937,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="4">
+      <c r="J24" s="4">
         <f>COUNTIFS(A24:A937,G24,D24:D937,0)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1987,23 +2013,24 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>16</v>
+      <c r="G25" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="H25" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A24:D938,2,FALSE)</f>
-        <v>1688</v>
+        <v>282</v>
       </c>
       <c r="I25" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A24:D938,3,FALSE)</f>
-        <v>0.56191742420196533</v>
-      </c>
-      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
         <f>COUNTIFS(A25:A938,G25,D25:D938,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>8</v>
+      </c>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2016,23 +2043,24 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>58</v>
+      <c r="G26" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="H26" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A25:D939,2,FALSE)</f>
-        <v>282</v>
+        <v>1688</v>
       </c>
       <c r="I26" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A25:D939,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
+        <v>0.56191742420196533</v>
+      </c>
+      <c r="J26" s="4">
         <f>COUNTIFS(A26:A939,G26,D26:D939,0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2045,7 +2073,7 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H27" s="4">
@@ -2056,12 +2084,13 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A26:D940,3,FALSE)</f>
         <v>0.74866843223571777</v>
       </c>
-      <c r="K27" s="4">
+      <c r="J27" s="4">
         <f>COUNTIFS(A27:A940,G27,D27:D940,0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2074,23 +2103,24 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>10</v>
+      <c r="G28" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="H28" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A27:D941,2,FALSE)</f>
-        <v>604</v>
+        <v>1650</v>
       </c>
       <c r="I28" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A27:D941,3,FALSE)</f>
-        <v>0.20106524229049683</v>
-      </c>
-      <c r="K28" s="4">
+        <v>0.54926765</v>
+      </c>
+      <c r="J28" s="4">
         <f>COUNTIFS(A28:A941,G28,D28:D941,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>6</v>
+      </c>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2103,23 +2133,24 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>57</v>
+      <c r="G29" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="H29" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A28:D942,2,FALSE)</f>
-        <v>648</v>
+        <v>2022</v>
       </c>
       <c r="I29" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A28:D942,3,FALSE)</f>
-        <v>0.21571238338947296</v>
-      </c>
-      <c r="K29" s="4">
+        <v>0.67310255765914917</v>
+      </c>
+      <c r="J29" s="4">
         <f>COUNTIFS(A29:A942,G29,D29:D942,0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2132,23 +2163,24 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>59</v>
+      <c r="G30" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="H30" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A29:D943,2,FALSE)</f>
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="I30" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A29:D943,3,FALSE)</f>
-        <v>0.54926765</v>
-      </c>
-      <c r="K30" s="4">
+        <v>0.54527294635772705</v>
+      </c>
+      <c r="J30" s="4">
         <f>COUNTIFS(A30:A943,G30,D30:D943,0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2161,7 +2193,7 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="9" t="s">
         <v>94</v>
       </c>
       <c r="H31" s="4">
@@ -2172,12 +2204,13 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A30:D944,3,FALSE)</f>
         <v>0.55059921741485596</v>
       </c>
-      <c r="K31" s="4">
+      <c r="J31" s="4">
         <f>COUNTIFS(A31:A944,G31,D31:D944,0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2190,7 +2223,7 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="9" t="s">
         <v>123</v>
       </c>
       <c r="H32" s="4">
@@ -2201,12 +2234,13 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A31:D945,3,FALSE)</f>
         <v>0.19474034011363983</v>
       </c>
-      <c r="K32" s="4">
+      <c r="J32" s="4">
         <f>COUNTIFS(A32:A945,G32,D32:D945,0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2219,23 +2253,24 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>138</v>
+      <c r="G33" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="H33" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A32:D946,2,FALSE)</f>
-        <v>1638</v>
+        <v>648</v>
       </c>
       <c r="I33" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A32:D946,3,FALSE)</f>
-        <v>0.54527294635772705</v>
-      </c>
-      <c r="K33" s="4">
+        <v>0.21571238338947296</v>
+      </c>
+      <c r="J33" s="4">
         <f>COUNTIFS(A33:A946,G33,D33:D946,0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2248,23 +2283,24 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>17</v>
+      <c r="G34" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H34" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A33:D947,2,FALSE)</f>
-        <v>2003</v>
+        <v>31</v>
       </c>
       <c r="I34" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A33:D947,3,FALSE)</f>
-        <v>0.66677761077880859</v>
-      </c>
-      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
         <f>COUNTIFS(A34:A947,G34,D34:D947,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2277,23 +2313,24 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>19</v>
+      <c r="G35" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="H35" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A34:D948,2,FALSE)</f>
-        <v>7</v>
+        <v>1666</v>
       </c>
       <c r="I35" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A34:D948,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
+        <v>0.55459386110305786</v>
+      </c>
+      <c r="J35" s="4">
         <f>COUNTIFS(A35:A948,G35,D35:D948,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2306,23 +2343,24 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>23</v>
+      <c r="G36" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="H36" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A35:D949,2,FALSE)</f>
-        <v>31</v>
+        <v>2200</v>
       </c>
       <c r="I36" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A35:D949,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="4">
+        <v>0.73235684633255005</v>
+      </c>
+      <c r="J36" s="4">
         <f>COUNTIFS(A36:A949,G36,D36:D949,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -2335,23 +2373,24 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>32</v>
+      <c r="G37" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="H37" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A36:D950,2,FALSE)</f>
-        <v>649</v>
+        <v>1420</v>
       </c>
       <c r="I37" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A36:D950,3,FALSE)</f>
-        <v>0.21604527533054352</v>
-      </c>
-      <c r="K37" s="4">
+        <v>0.47270306944847107</v>
+      </c>
+      <c r="J37" s="4">
         <f>COUNTIFS(A37:A950,G37,D37:D950,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2364,23 +2403,24 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>69</v>
+      <c r="G38" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="H38" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A37:D951,2,FALSE)</f>
-        <v>849</v>
+        <v>921</v>
       </c>
       <c r="I38" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A37:D951,3,FALSE)</f>
-        <v>0.28262317180633545</v>
-      </c>
-      <c r="K38" s="4">
+        <v>0.3065912127494812</v>
+      </c>
+      <c r="J38" s="4">
         <f>COUNTIFS(A38:A951,G38,D38:D951,0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2393,23 +2433,24 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>77</v>
+      <c r="G39" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="H39" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A38:D952,2,FALSE)</f>
-        <v>2200</v>
+        <v>1637</v>
       </c>
       <c r="I39" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A38:D952,3,FALSE)</f>
-        <v>0.73235684633255005</v>
-      </c>
-      <c r="K39" s="4">
+        <v>0.54494005400000001</v>
+      </c>
+      <c r="J39" s="4">
         <f>COUNTIFS(A39:A952,G39,D39:D952,0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2422,23 +2463,24 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>82</v>
+      <c r="G40" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H40" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A39:D953,2,FALSE)</f>
-        <v>2022</v>
+        <v>7</v>
       </c>
       <c r="I40" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A39:D953,3,FALSE)</f>
-        <v>0.67310255765914917</v>
-      </c>
-      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
         <f>COUNTIFS(A40:A953,G40,D40:D953,0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -2451,23 +2493,24 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>102</v>
+      <c r="G41" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="H41" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A40:D954,2,FALSE)</f>
-        <v>1666</v>
+        <v>784</v>
       </c>
       <c r="I41" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A40:D954,3,FALSE)</f>
-        <v>0.55459386110305786</v>
-      </c>
-      <c r="K41" s="4">
+        <v>0.26098534499999998</v>
+      </c>
+      <c r="J41" s="4">
         <f>COUNTIFS(A41:A954,G41,D41:D954,0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -2480,23 +2523,24 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>116</v>
+      <c r="G42" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="H42" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A41:D955,2,FALSE)</f>
-        <v>921</v>
+        <v>849</v>
       </c>
       <c r="I42" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A41:D955,3,FALSE)</f>
-        <v>0.3065912127494812</v>
-      </c>
-      <c r="K42" s="4">
+        <v>0.28262317180633545</v>
+      </c>
+      <c r="J42" s="4">
         <f>COUNTIFS(A42:A955,G42,D42:D955,0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -2509,23 +2553,24 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>117</v>
+      <c r="G43" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="H43" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A42:D956,2,FALSE)</f>
-        <v>1420</v>
+        <v>1631</v>
       </c>
       <c r="I43" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A42:D956,3,FALSE)</f>
-        <v>0.47270306944847107</v>
-      </c>
-      <c r="K43" s="4">
+        <v>0.54294276237487793</v>
+      </c>
+      <c r="J43" s="4">
         <f>COUNTIFS(A43:A956,G43,D43:D956,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -2538,23 +2583,24 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>163</v>
+      <c r="G44" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="H44" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A43:D957,2,FALSE)</f>
-        <v>1637</v>
+        <v>32</v>
       </c>
       <c r="I44" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A43:D957,3,FALSE)</f>
-        <v>0.54494005400000001</v>
-      </c>
-      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
         <f>COUNTIFS(A44:A957,G44,D44:D957,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -2567,23 +2613,24 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>191</v>
+      <c r="G45" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="H45" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A44:D958,2,FALSE)</f>
-        <v>784</v>
+        <v>2468</v>
       </c>
       <c r="I45" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A44:D958,3,FALSE)</f>
-        <v>0.26098534499999998</v>
-      </c>
-      <c r="K45" s="4">
+        <v>0.8215712308883667</v>
+      </c>
+      <c r="J45" s="4">
         <f>COUNTIFS(A45:A958,G45,D45:D958,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2596,23 +2643,24 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>25</v>
+      <c r="G46" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="H46" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A45:D959,2,FALSE)</f>
-        <v>95</v>
+        <v>537</v>
       </c>
       <c r="I46" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A45:D959,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="4">
+        <v>0.178761646</v>
+      </c>
+      <c r="J46" s="4">
         <f>COUNTIFS(A46:A959,G46,D46:D959,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -2625,23 +2673,24 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>27</v>
+      <c r="G47" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H47" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A46:D960,2,FALSE)</f>
-        <v>166</v>
+        <v>649</v>
       </c>
       <c r="I47" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A46:D960,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K47" s="4">
+        <v>0.21604527533054352</v>
+      </c>
+      <c r="J47" s="4">
         <f>COUNTIFS(A47:A960,G47,D47:D960,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2654,23 +2703,24 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>66</v>
+      <c r="G48" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="H48" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A47:D961,2,FALSE)</f>
-        <v>663</v>
+        <v>2406</v>
       </c>
       <c r="I48" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A47:D961,3,FALSE)</f>
-        <v>0.22070573270320892</v>
-      </c>
-      <c r="K48" s="4">
+        <v>0.80093210935592651</v>
+      </c>
+      <c r="J48" s="4">
         <f>COUNTIFS(A48:A961,G48,D48:D961,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2683,23 +2733,24 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>83</v>
+      <c r="G49" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="H49" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A48:D962,2,FALSE)</f>
-        <v>2271</v>
+        <v>663</v>
       </c>
       <c r="I49" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A48:D962,3,FALSE)</f>
-        <v>0.75599199533462524</v>
-      </c>
-      <c r="K49" s="4">
+        <v>0.22070573270320892</v>
+      </c>
+      <c r="J49" s="4">
         <f>COUNTIFS(A49:A962,G49,D49:D962,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -2712,23 +2763,24 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>84</v>
+      <c r="G50" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="H50" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A49:D963,2,FALSE)</f>
-        <v>2370</v>
+        <v>604</v>
       </c>
       <c r="I50" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A49:D963,3,FALSE)</f>
-        <v>0.78894805908203125</v>
-      </c>
-      <c r="K50" s="4">
+        <v>0.20106524229049683</v>
+      </c>
+      <c r="J50" s="4">
         <f>COUNTIFS(A50:A963,G50,D50:D963,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2741,23 +2793,24 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>95</v>
+      <c r="G51" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="H51" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A50:D964,2,FALSE)</f>
-        <v>2761</v>
+        <v>515</v>
       </c>
       <c r="I51" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A50:D964,3,FALSE)</f>
-        <v>0.91910785436630249</v>
-      </c>
-      <c r="K51" s="4">
+        <v>0.17143808305263519</v>
+      </c>
+      <c r="J51" s="4">
         <f>COUNTIFS(A51:A964,G51,D51:D964,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2770,23 +2823,24 @@
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>111</v>
+      <c r="G52" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="H52" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A51:D965,2,FALSE)</f>
-        <v>2406</v>
+        <v>2761</v>
       </c>
       <c r="I52" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A51:D965,3,FALSE)</f>
-        <v>0.80093210935592651</v>
-      </c>
-      <c r="K52" s="4">
+        <v>0.91910785436630249</v>
+      </c>
+      <c r="J52" s="4">
         <f>COUNTIFS(A52:A965,G52,D52:D965,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -2799,23 +2853,24 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>120</v>
+      <c r="G53" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="H53" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A52:D966,2,FALSE)</f>
-        <v>2468</v>
+        <v>2271</v>
       </c>
       <c r="I53" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A52:D966,3,FALSE)</f>
-        <v>0.8215712308883667</v>
-      </c>
-      <c r="K53" s="4">
+        <v>0.75599199533462524</v>
+      </c>
+      <c r="J53" s="4">
         <f>COUNTIFS(A53:A966,G53,D53:D966,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -2828,23 +2883,24 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>171</v>
+      <c r="G54" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="H54" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A53:D967,2,FALSE)</f>
-        <v>32</v>
+        <v>2370</v>
       </c>
       <c r="I54" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A53:D967,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K54" s="4">
+        <v>0.78894805908203125</v>
+      </c>
+      <c r="J54" s="4">
         <f>COUNTIFS(A54:A967,G54,D54:D967,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -2857,23 +2913,24 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>174</v>
+      <c r="G55" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="H55" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A54:D968,2,FALSE)</f>
-        <v>1631</v>
+        <v>17</v>
       </c>
       <c r="I55" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A54:D968,3,FALSE)</f>
-        <v>0.54294276237487793</v>
-      </c>
-      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
         <f>COUNTIFS(A55:A968,G55,D55:D968,0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>3</v>
+      </c>
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2886,23 +2943,24 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>30</v>
+      <c r="G56" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="H56" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A55:D969,2,FALSE)</f>
-        <v>526</v>
+        <v>1446</v>
       </c>
       <c r="I56" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A55:D969,3,FALSE)</f>
-        <v>0.17509986460208893</v>
-      </c>
-      <c r="K56" s="4">
+        <v>0.48135820031166077</v>
+      </c>
+      <c r="J56" s="4">
         <f>COUNTIFS(A56:A969,G56,D56:D969,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>3</v>
+      </c>
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -2915,23 +2973,24 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>53</v>
+      <c r="G57" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="H57" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A56:D970,2,FALSE)</f>
-        <v>50</v>
+        <v>1976</v>
       </c>
       <c r="I57" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A56:D970,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="4">
+        <v>0.65778958797454834</v>
+      </c>
+      <c r="J57" s="4">
         <f>COUNTIFS(A57:A970,G57,D57:D970,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -2944,23 +3003,24 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>74</v>
+      <c r="G58" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="H58" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A57:D971,2,FALSE)</f>
-        <v>17</v>
+        <v>2591</v>
       </c>
       <c r="I58" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A57:D971,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K58" s="4">
+        <v>0.86251664161682129</v>
+      </c>
+      <c r="J58" s="4">
         <f>COUNTIFS(A58:A971,G58,D58:D971,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="M58" s="9"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -2973,23 +3033,24 @@
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>89</v>
+      <c r="G59" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="H59" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A58:D972,2,FALSE)</f>
-        <v>515</v>
+        <v>166</v>
       </c>
       <c r="I59" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A58:D972,3,FALSE)</f>
-        <v>0.17143808305263519</v>
-      </c>
-      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
         <f>COUNTIFS(A59:A972,G59,D59:D972,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="M59" s="9"/>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -3002,23 +3063,24 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>92</v>
+      <c r="G60" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="H60" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A59:D973,2,FALSE)</f>
-        <v>1446</v>
+        <v>1363</v>
       </c>
       <c r="I60" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A59:D973,3,FALSE)</f>
-        <v>0.48135820031166077</v>
-      </c>
-      <c r="K60" s="4">
+        <v>0.453728348</v>
+      </c>
+      <c r="J60" s="4">
         <f>COUNTIFS(A60:A973,G60,D60:D973,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="M60" s="9"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -3031,23 +3093,24 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>121</v>
+      <c r="G61" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="H61" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A60:D974,2,FALSE)</f>
-        <v>2591</v>
+        <v>2696</v>
       </c>
       <c r="I61" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A60:D974,3,FALSE)</f>
-        <v>0.86251664161682129</v>
-      </c>
-      <c r="K61" s="4">
+        <v>0.89747005701065063</v>
+      </c>
+      <c r="J61" s="4">
         <f>COUNTIFS(A61:A974,G61,D61:D974,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="M61" s="9"/>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3060,23 +3123,24 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>145</v>
+      <c r="G62" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="H62" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A61:D975,2,FALSE)</f>
-        <v>1982</v>
+        <v>2579</v>
       </c>
       <c r="I62" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A61:D975,3,FALSE)</f>
-        <v>0.65978693962097168</v>
-      </c>
-      <c r="K62" s="4">
+        <v>0.85852199792861938</v>
+      </c>
+      <c r="J62" s="4">
         <f>COUNTIFS(A62:A975,G62,D62:D975,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="M62" s="9"/>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -3089,23 +3153,24 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>146</v>
+      <c r="G63" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H63" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A62:D976,2,FALSE)</f>
-        <v>2579</v>
+        <v>95</v>
       </c>
       <c r="I63" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A62:D976,3,FALSE)</f>
-        <v>0.85852199792861938</v>
-      </c>
-      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
         <f>COUNTIFS(A63:A976,G63,D63:D976,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -3118,23 +3183,24 @@
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>175</v>
+      <c r="G64" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="H64" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A63:D977,2,FALSE)</f>
-        <v>2696</v>
+        <v>1982</v>
       </c>
       <c r="I64" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A63:D977,3,FALSE)</f>
-        <v>0.89747005701065063</v>
-      </c>
-      <c r="K64" s="4">
+        <v>0.65978693962097168</v>
+      </c>
+      <c r="J64" s="4">
         <f>COUNTIFS(A64:A977,G64,D64:D977,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="M64" s="9"/>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -3147,92 +3213,96 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>194</v>
+      <c r="G65" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H65" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A64:D978,2,FALSE)</f>
-        <v>537</v>
+        <v>2003</v>
       </c>
       <c r="I65" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A64:D978,3,FALSE)</f>
-        <v>0.178761646</v>
-      </c>
-      <c r="K65" s="4">
+        <v>0.66677761077880859</v>
+      </c>
+      <c r="J65" s="4">
         <f>COUNTIFS(A65:A978,G65,D65:D978,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="M65" s="9"/>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>8</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="4" t="e">
+      <c r="G66" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H66" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A65:D979,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I66" s="4" t="e">
+        <v>917</v>
+      </c>
+      <c r="I66" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A65:D979,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K66" s="4">
+        <v>0.30525964498519897</v>
+      </c>
+      <c r="J66" s="4">
         <f>COUNTIFS(A66:A979,G66,D66:D979,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>3</v>
+      </c>
+      <c r="M66" s="9"/>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>26</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>20</v>
+      <c r="G67" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="H67" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A66:D980,2,FALSE)</f>
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="I67" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A66:D980,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K67" s="4">
+        <v>0.38348868489265442</v>
+      </c>
+      <c r="J67" s="4">
         <f>COUNTIFS(A67:A980,G67,D67:D980,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="M67" s="9"/>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>22</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>61</v>
+      <c r="G68" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="H68" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A67:D981,2,FALSE)</f>
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="I68" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A67:D981,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K68" s="4">
+      <c r="J68" s="4">
         <f>COUNTIFS(A68:A981,G68,D68:D981,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="M68" s="9"/>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="2" t="s">
         <v>53</v>
       </c>
@@ -3245,23 +3315,24 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>63</v>
+      <c r="G69" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="H69" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A68:D982,2,FALSE)</f>
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="I69" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A68:D982,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K69" s="4">
+      <c r="J69" s="4">
         <f>COUNTIFS(A69:A982,G69,D69:D982,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="M69" s="9"/>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
@@ -3274,23 +3345,24 @@
       <c r="D70">
         <v>0</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>73</v>
+      <c r="G70" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="H70" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A69:D983,2,FALSE)</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I70" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A69:D983,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="4">
+      <c r="J70" s="4">
         <f>COUNTIFS(A70:A983,G70,D70:D983,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="M70" s="9"/>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="2" t="s">
         <v>55</v>
       </c>
@@ -3303,23 +3375,24 @@
       <c r="D71">
         <v>0</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>85</v>
+      <c r="G71" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="H71" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A70:D984,2,FALSE)</f>
-        <v>22</v>
+        <v>1313</v>
       </c>
       <c r="I71" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A70:D984,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K71" s="4">
+        <v>0.437083899974823</v>
+      </c>
+      <c r="J71" s="4">
         <f>COUNTIFS(A71:A984,G71,D71:D984,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="M71" s="9"/>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="2" t="s">
         <v>56</v>
       </c>
@@ -3332,23 +3405,24 @@
       <c r="D72">
         <v>0</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>87</v>
+      <c r="G72" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="H72" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A71:D985,2,FALSE)</f>
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="I72" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A71:D985,3,FALSE)</f>
-        <v>0.10053262114524841</v>
-      </c>
-      <c r="K72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
         <f>COUNTIFS(A72:A985,G72,D72:D985,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="M72" s="9"/>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
@@ -3361,23 +3435,24 @@
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>97</v>
+      <c r="G73" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="H73" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A72:D986,2,FALSE)</f>
-        <v>36</v>
+        <v>526</v>
       </c>
       <c r="I73" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A72:D986,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K73" s="4">
+        <v>0.17509986460208893</v>
+      </c>
+      <c r="J73" s="4">
         <f>COUNTIFS(A73:A986,G73,D73:D986,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="M73" s="9"/>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="2" t="s">
         <v>57</v>
       </c>
@@ -3390,23 +3465,24 @@
       <c r="D74">
         <v>0</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>100</v>
+      <c r="G74" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="H74" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A73:D987,2,FALSE)</f>
-        <v>452</v>
+        <v>870</v>
       </c>
       <c r="I74" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A73:D987,3,FALSE)</f>
-        <v>0.15046603977680206</v>
-      </c>
-      <c r="K74" s="4">
+        <v>0.28961384299999998</v>
+      </c>
+      <c r="J74" s="4">
         <f>COUNTIFS(A74:A987,G74,D74:D987,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="M74" s="9"/>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="2" t="s">
         <v>41</v>
       </c>
@@ -3419,23 +3495,24 @@
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>101</v>
+      <c r="G75" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="H75" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A74:D988,2,FALSE)</f>
-        <v>1313</v>
+        <v>1488</v>
       </c>
       <c r="I75" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A74:D988,3,FALSE)</f>
-        <v>0.437083899974823</v>
-      </c>
-      <c r="K75" s="4">
+        <v>0.49533954262733459</v>
+      </c>
+      <c r="J75" s="4">
         <f>COUNTIFS(A75:A988,G75,D75:D988,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="M75" s="9"/>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="2" t="s">
         <v>34</v>
       </c>
@@ -3448,23 +3525,24 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>114</v>
+      <c r="G76" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="H76" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A75:D989,2,FALSE)</f>
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I76" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A75:D989,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K76" s="4">
+      <c r="J76" s="4">
         <f>COUNTIFS(A76:A989,G76,D76:D989,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="M76" s="9"/>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -3477,23 +3555,24 @@
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>118</v>
+      <c r="G77" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="H77" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A76:D990,2,FALSE)</f>
-        <v>1976</v>
+        <v>2211</v>
       </c>
       <c r="I77" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A76:D990,3,FALSE)</f>
-        <v>0.65778958797454834</v>
-      </c>
-      <c r="K77" s="4">
+        <v>0.73601865768432617</v>
+      </c>
+      <c r="J77" s="4">
         <f>COUNTIFS(A77:A990,G77,D77:D990,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="M77" s="9"/>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -3506,23 +3585,24 @@
       <c r="D78">
         <v>0</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>124</v>
+      <c r="G78" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H78" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A77:D991,2,FALSE)</f>
-        <v>2211</v>
+        <v>302</v>
       </c>
       <c r="I78" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A77:D991,3,FALSE)</f>
-        <v>0.73601865768432617</v>
-      </c>
-      <c r="K78" s="4">
+        <v>0.10053262114524841</v>
+      </c>
+      <c r="J78" s="4">
         <f>COUNTIFS(A78:A991,G78,D78:D991,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="M78" s="9"/>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -3535,23 +3615,24 @@
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>134</v>
+      <c r="G79" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="H79" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A78:D992,2,FALSE)</f>
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="I79" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A78:D992,3,FALSE)</f>
-        <v>0.15412783622741699</v>
-      </c>
-      <c r="K79" s="4">
+        <v>0.15046603977680206</v>
+      </c>
+      <c r="J79" s="4">
         <f>COUNTIFS(A79:A992,G79,D79:D992,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="M79" s="9"/>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>59</v>
       </c>
@@ -3564,23 +3645,24 @@
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>142</v>
+      <c r="G80" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="H80" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A79:D993,2,FALSE)</f>
-        <v>221</v>
+        <v>431</v>
       </c>
       <c r="I80" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A79:D993,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K80" s="4">
+        <v>0.14347536899999999</v>
+      </c>
+      <c r="J80" s="4">
         <f>COUNTIFS(A80:A993,G80,D80:D993,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="M80" s="9"/>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -3593,23 +3675,24 @@
       <c r="D81">
         <v>0</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H81" s="4">
+      <c r="G81" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="9">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A80:D994,2,FALSE)</f>
-        <v>1488</v>
-      </c>
-      <c r="I81" s="4">
+        <v>1</v>
+      </c>
+      <c r="I81" s="9">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A80:D994,3,FALSE)</f>
-        <v>0.49533954262733459</v>
-      </c>
-      <c r="K81" s="4">
+        <v>0</v>
+      </c>
+      <c r="J81" s="4">
         <f>COUNTIFS(A81:A994,G81,D81:D994,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="M81" s="9"/>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -3622,23 +3705,24 @@
       <c r="D82">
         <v>0</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H82" s="4">
+      <c r="G82" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H82" s="5">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A81:D995,2,FALSE)</f>
-        <v>2936</v>
-      </c>
-      <c r="I82" s="4">
+        <v>812</v>
+      </c>
+      <c r="I82" s="5">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A81:D995,3,FALSE)</f>
-        <v>0.97736352682113647</v>
-      </c>
-      <c r="K82" s="4">
+        <v>0.27030625899999999</v>
+      </c>
+      <c r="J82" s="4">
         <f>COUNTIFS(A82:A995,G82,D82:D995,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="M82" s="9"/>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="2" t="s">
         <v>44</v>
       </c>
@@ -3651,23 +3735,24 @@
       <c r="D83" s="2">
         <v>1</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>162</v>
+      <c r="G83" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="H83" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A82:D996,2,FALSE)</f>
-        <v>1608</v>
+        <v>2991</v>
       </c>
       <c r="I83" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A82:D996,3,FALSE)</f>
-        <v>0.53528630700000002</v>
-      </c>
-      <c r="K83" s="4">
+        <v>0.99567246399999998</v>
+      </c>
+      <c r="J83" s="4">
         <f>COUNTIFS(A83:A996,G83,D83:D996,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="M83" s="9"/>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="2" t="s">
         <v>19</v>
       </c>
@@ -3680,23 +3765,24 @@
       <c r="D84" s="2">
         <v>1</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>173</v>
+      <c r="G84" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="H84" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A83:D997,2,FALSE)</f>
-        <v>917</v>
+        <v>1608</v>
       </c>
       <c r="I84" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A83:D997,3,FALSE)</f>
-        <v>0.30525964498519897</v>
-      </c>
-      <c r="K84" s="4">
+        <v>0.53528630700000002</v>
+      </c>
+      <c r="J84" s="4">
         <f>COUNTIFS(A84:A997,G84,D84:D997,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="M84" s="9"/>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="2" t="s">
         <v>6</v>
       </c>
@@ -3709,23 +3795,24 @@
       <c r="D85" s="2">
         <v>1</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>176</v>
+      <c r="G85" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="H85" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A84:D998,2,FALSE)</f>
-        <v>470</v>
+        <v>36</v>
       </c>
       <c r="I85" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A84:D998,3,FALSE)</f>
-        <v>0.15645804999999999</v>
-      </c>
-      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="J85" s="4">
         <f>COUNTIFS(A85:A998,G85,D85:D998,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="M85" s="9"/>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="2" t="s">
         <v>38</v>
       </c>
@@ -3738,23 +3825,24 @@
       <c r="D86" s="2">
         <v>0</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>188</v>
+      <c r="G86" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="H86" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A85:D999,2,FALSE)</f>
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="I86" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A85:D999,3,FALSE)</f>
-        <v>0.38348868489265442</v>
-      </c>
-      <c r="K86" s="4">
+        <v>0</v>
+      </c>
+      <c r="J86" s="4">
         <f>COUNTIFS(A86:A999,G86,D86:D999,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="M86" s="9"/>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
@@ -3767,23 +3855,24 @@
       <c r="D87" s="2">
         <v>0</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>193</v>
+      <c r="G87" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="H87" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A86:D1000,2,FALSE)</f>
-        <v>234</v>
+        <v>463</v>
       </c>
       <c r="I87" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A86:D1000,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K87" s="4">
+        <v>0.15412783622741699</v>
+      </c>
+      <c r="J87" s="4">
         <f>COUNTIFS(A87:A1000,G87,D87:D1000,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="M87" s="9"/>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="2" t="s">
         <v>61</v>
       </c>
@@ -3796,23 +3885,24 @@
       <c r="D88" s="2">
         <v>1</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>195</v>
+      <c r="G88" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="H88" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A87:D1001,2,FALSE)</f>
-        <v>812</v>
+        <v>38</v>
       </c>
       <c r="I88" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A87:D1001,3,FALSE)</f>
-        <v>0.27030625899999999</v>
-      </c>
-      <c r="K88" s="4">
+        <v>0</v>
+      </c>
+      <c r="J88" s="4">
         <f>COUNTIFS(A88:A1001,G88,D88:D1001,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="M88" s="9"/>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="2" t="s">
         <v>62</v>
       </c>
@@ -3825,23 +3915,24 @@
       <c r="D89" s="2">
         <v>1</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>201</v>
+      <c r="G89" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="H89" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A88:D1002,2,FALSE)</f>
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="I89" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A88:D1002,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K89" s="4">
+      <c r="J89" s="4">
         <f>COUNTIFS(A89:A1002,G89,D89:D1002,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="M89" s="9"/>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="2" t="s">
         <v>45</v>
       </c>
@@ -3854,23 +3945,24 @@
       <c r="D90" s="2">
         <v>0</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>212</v>
+      <c r="G90" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="H90" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A89:D1003,2,FALSE)</f>
-        <v>1363</v>
+        <v>2936</v>
       </c>
       <c r="I90" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A89:D1003,3,FALSE)</f>
-        <v>0.453728348</v>
-      </c>
-      <c r="K90" s="4">
+        <v>0.97736352682113647</v>
+      </c>
+      <c r="J90" s="4">
         <f>COUNTIFS(A90:A1003,G90,D90:D1003,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="M90" s="9"/>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="2" t="s">
         <v>63</v>
       </c>
@@ -3883,23 +3975,24 @@
       <c r="D91" s="2">
         <v>0</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H91" s="4">
+      <c r="G91" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H91" s="8">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A90:D1004,2,FALSE)</f>
-        <v>870</v>
-      </c>
-      <c r="I91" s="4">
+        <v>470</v>
+      </c>
+      <c r="I91" s="8">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A90:D1004,3,FALSE)</f>
-        <v>0.28961384299999998</v>
-      </c>
-      <c r="K91" s="4">
+        <v>0.15645804999999999</v>
+      </c>
+      <c r="J91" s="4">
         <f>COUNTIFS(A91:A1004,G91,D91:D1004,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="M91" s="9"/>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="2" t="s">
         <v>64</v>
       </c>
@@ -3912,23 +4005,24 @@
       <c r="D92" s="2">
         <v>1</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>8</v>
+      <c r="G92" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="H92" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A91:D1005,2,FALSE)</f>
-        <v>246</v>
+        <v>570</v>
       </c>
       <c r="I92" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A91:D1005,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K92" s="4">
+        <v>0.189747006</v>
+      </c>
+      <c r="J92" s="4">
         <f>COUNTIFS(A92:A1005,G92,D92:D1005,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M92" s="9"/>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="2" t="s">
         <v>65</v>
       </c>
@@ -3941,23 +4035,24 @@
       <c r="D93" s="2">
         <v>1</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="4" t="e">
+      <c r="G93" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H93" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A92:D1006,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I93" s="4" t="e">
+        <v>1694</v>
+      </c>
+      <c r="I93" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A92:D1006,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K93" s="4">
+        <v>0.56391477599999995</v>
+      </c>
+      <c r="J93" s="4">
         <f>COUNTIFS(A93:A1006,G93,D93:D1006,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M93" s="9"/>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
@@ -3970,23 +4065,24 @@
       <c r="D94" s="2">
         <v>0</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>21</v>
+      <c r="G94" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="H94" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A93:D1007,2,FALSE)</f>
-        <v>0</v>
+        <v>1083</v>
       </c>
       <c r="I94" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A93:D1007,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K94" s="4">
+        <v>0.36051931999999998</v>
+      </c>
+      <c r="J94" s="4">
         <f>COUNTIFS(A94:A1007,G94,D94:D1007,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M94" s="9"/>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="2" t="s">
         <v>10</v>
       </c>
@@ -3999,23 +4095,24 @@
       <c r="D95" s="2">
         <v>0</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>22</v>
+      <c r="G95" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="H95" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A94:D1008,2,FALSE)</f>
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="I95" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A94:D1008,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K95" s="4">
+        <v>0.67177098989486694</v>
+      </c>
+      <c r="J95" s="4">
         <f>COUNTIFS(A95:A1008,G95,D95:D1008,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M95" s="9"/>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="2" t="s">
         <v>31</v>
       </c>
@@ -4028,23 +4125,24 @@
       <c r="D96" s="2">
         <v>0</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>24</v>
+      <c r="G96" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="H96" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A95:D1009,2,FALSE)</f>
-        <v>65</v>
+        <v>1882</v>
       </c>
       <c r="I96" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A95:D1009,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K96" s="4">
+        <v>0.62649798400000001</v>
+      </c>
+      <c r="J96" s="4">
         <f>COUNTIFS(A96:A1009,G96,D96:D1009,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M96" s="9"/>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="2" t="s">
         <v>66</v>
       </c>
@@ -4057,23 +4155,24 @@
       <c r="D97" s="2">
         <v>0</v>
       </c>
-      <c r="G97" s="4" t="s">
-        <v>26</v>
+      <c r="G97" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="H97" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A96:D1010,2,FALSE)</f>
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="I97" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A96:D1010,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K97" s="4">
+        <v>0.20006658136844635</v>
+      </c>
+      <c r="J97" s="4">
         <f>COUNTIFS(A97:A1010,G97,D97:D1010,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M97" s="9"/>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="2" t="s">
         <v>67</v>
       </c>
@@ -4086,23 +4185,24 @@
       <c r="D98" s="2">
         <v>0</v>
       </c>
-      <c r="G98" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" s="4" t="e">
+      <c r="G98" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H98" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A97:D1011,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I98" s="4" t="e">
+        <v>1143</v>
+      </c>
+      <c r="I98" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A97:D1011,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K98" s="4">
+        <v>0.3804926872253418</v>
+      </c>
+      <c r="J98" s="4">
         <f>COUNTIFS(A98:A1011,G98,D98:D1011,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M98" s="9"/>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="2" t="s">
         <v>11</v>
       </c>
@@ -4115,23 +4215,24 @@
       <c r="D99" s="2">
         <v>0</v>
       </c>
-      <c r="G99" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H99" s="4" t="e">
+      <c r="G99" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H99" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A98:D1012,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I99" s="4" t="e">
+        <v>613</v>
+      </c>
+      <c r="I99" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A98:D1012,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K99" s="4">
+        <v>0.20406125485897064</v>
+      </c>
+      <c r="J99" s="4">
         <f>COUNTIFS(A99:A1012,G99,D99:D1012,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M99" s="9"/>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="2" t="s">
         <v>68</v>
       </c>
@@ -4144,23 +4245,24 @@
       <c r="D100" s="2">
         <v>0</v>
       </c>
-      <c r="G100" s="4" t="s">
-        <v>39</v>
+      <c r="G100" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="H100" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A99:D1013,2,FALSE)</f>
-        <v>35</v>
+        <v>1733</v>
       </c>
       <c r="I100" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A99:D1013,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K100" s="4">
+        <v>0.57689744200000004</v>
+      </c>
+      <c r="J100" s="4">
         <f>COUNTIFS(A100:A1013,G100,D100:D1013,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M100" s="9"/>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="2" t="s">
         <v>69</v>
       </c>
@@ -4173,23 +4275,24 @@
       <c r="D101" s="2">
         <v>0</v>
       </c>
-      <c r="G101" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H101" s="4" t="e">
+      <c r="G101" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H101" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A100:D1014,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I101" s="4" t="e">
+        <v>254</v>
+      </c>
+      <c r="I101" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A100:D1014,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K101" s="4">
+        <v>0</v>
+      </c>
+      <c r="J101" s="4">
         <f>COUNTIFS(A101:A1014,G101,D101:D1014,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M101" s="9"/>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="2" t="s">
         <v>13</v>
       </c>
@@ -4202,23 +4305,24 @@
       <c r="D102" s="2">
         <v>0</v>
       </c>
-      <c r="G102" s="4" t="s">
-        <v>44</v>
+      <c r="G102" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="H102" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A101:D1015,2,FALSE)</f>
-        <v>1</v>
+        <v>923</v>
       </c>
       <c r="I102" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A101:D1015,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K102" s="4">
+        <v>0.30725699699999998</v>
+      </c>
+      <c r="J102" s="4">
         <f>COUNTIFS(A102:A1015,G102,D102:D1015,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="M102" s="9"/>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="2" t="s">
         <v>34</v>
       </c>
@@ -4231,23 +4335,24 @@
       <c r="D103" s="2">
         <v>0</v>
       </c>
-      <c r="G103" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H103" s="4" t="e">
+      <c r="G103" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H103" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A102:D1016,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I103" s="4" t="e">
+        <v>2802</v>
+      </c>
+      <c r="I103" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A102:D1016,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K103" s="4">
+        <v>0.93275630474090576</v>
+      </c>
+      <c r="J103" s="4">
         <f>COUNTIFS(A103:A1016,G103,D103:D1016,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M103" s="9"/>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="2" t="s">
         <v>35</v>
       </c>
@@ -4260,23 +4365,24 @@
       <c r="D104" s="2">
         <v>0</v>
       </c>
-      <c r="G104" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H104" s="4" t="e">
+      <c r="G104" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H104" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A103:D1017,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I104" s="4" t="e">
+        <v>1684</v>
+      </c>
+      <c r="I104" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A103:D1017,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K104" s="4">
+        <v>0.56058585599999999</v>
+      </c>
+      <c r="J104" s="4">
         <f>COUNTIFS(A104:A1017,G104,D104:D1017,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M104" s="9"/>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="2" t="s">
         <v>42</v>
       </c>
@@ -4289,23 +4395,24 @@
       <c r="D105" s="2">
         <v>0</v>
       </c>
-      <c r="G105" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H105" s="4" t="e">
+      <c r="G105" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H105" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A104:D1018,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I105" s="4" t="e">
+        <v>1601</v>
+      </c>
+      <c r="I105" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A104:D1018,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K105" s="4">
+        <v>0.53295606374740601</v>
+      </c>
+      <c r="J105" s="4">
         <f>COUNTIFS(A105:A1018,G105,D105:D1018,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M105" s="9"/>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="2" t="s">
         <v>50</v>
       </c>
@@ -4318,23 +4425,24 @@
       <c r="D106" s="2">
         <v>0</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H106" s="4" t="e">
+      <c r="G106" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H106" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A105:D1019,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I106" s="4" t="e">
+        <v>1427</v>
+      </c>
+      <c r="I106" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A105:D1019,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K106" s="4">
+        <v>0.47503328299999997</v>
+      </c>
+      <c r="J106" s="4">
         <f>COUNTIFS(A106:A1019,G106,D106:D1019,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M106" s="9"/>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -4347,23 +4455,24 @@
       <c r="D107" s="2">
         <v>0</v>
       </c>
-      <c r="G107" s="4" t="s">
-        <v>54</v>
+      <c r="G107" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="H107" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A106:D1020,2,FALSE)</f>
-        <v>60</v>
+        <v>2008</v>
       </c>
       <c r="I107" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A106:D1020,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K107" s="4">
+        <v>0.66844207</v>
+      </c>
+      <c r="J107" s="4">
         <f>COUNTIFS(A107:A1020,G107,D107:D1020,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M107" s="9"/>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="2" t="s">
         <v>60</v>
       </c>
@@ -4376,23 +4485,24 @@
       <c r="D108" s="2">
         <v>0</v>
       </c>
-      <c r="G108" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H108" s="4" t="e">
+      <c r="G108" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H108" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A107:D1021,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I108" s="4" t="e">
+        <v>2226</v>
+      </c>
+      <c r="I108" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A107:D1021,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K108" s="4">
+        <v>0.74101197719573975</v>
+      </c>
+      <c r="J108" s="4">
         <f>COUNTIFS(A108:A1021,G108,D108:D1021,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M108" s="9"/>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="2" t="s">
         <v>70</v>
       </c>
@@ -4405,23 +4515,24 @@
       <c r="D109" s="2">
         <v>0</v>
       </c>
-      <c r="G109" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H109" s="4" t="e">
+      <c r="G109" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H109" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A108:D1022,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I109" s="4" t="e">
+        <v>1971</v>
+      </c>
+      <c r="I109" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A108:D1022,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K109" s="4">
+        <v>0.65612518799999997</v>
+      </c>
+      <c r="J109" s="4">
         <f>COUNTIFS(A109:A1022,G109,D109:D1022,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M109" s="9"/>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="2" t="s">
         <v>71</v>
       </c>
@@ -4434,23 +4545,24 @@
       <c r="D110" s="2">
         <v>0</v>
       </c>
-      <c r="G110" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H110" s="4" t="e">
+      <c r="G110" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H110" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A109:D1023,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I110" s="4" t="e">
+        <v>805</v>
+      </c>
+      <c r="I110" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A109:D1023,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K110" s="4">
+        <v>0.26797604560852051</v>
+      </c>
+      <c r="J110" s="4">
         <f>COUNTIFS(A110:A1023,G110,D110:D1023,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M110" s="9"/>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="2" t="s">
         <v>37</v>
       </c>
@@ -4463,23 +4575,24 @@
       <c r="D111" s="2">
         <v>0</v>
       </c>
-      <c r="G111" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H111" s="4" t="e">
+      <c r="G111" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H111" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A110:D1024,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I111" s="4" t="e">
+        <v>1514</v>
+      </c>
+      <c r="I111" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A110:D1024,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K111" s="4">
+        <v>0.50399470300000004</v>
+      </c>
+      <c r="J111" s="4">
         <f>COUNTIFS(A111:A1024,G111,D111:D1024,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="M111" s="9"/>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="2" t="s">
         <v>72</v>
       </c>
@@ -4492,23 +4605,24 @@
       <c r="D112" s="2">
         <v>0</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>72</v>
+      <c r="G112" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="H112" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A111:D1025,2,FALSE)</f>
-        <v>2353</v>
+        <v>0</v>
       </c>
       <c r="I112" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A111:D1025,3,FALSE)</f>
-        <v>0.78328895568847656</v>
-      </c>
-      <c r="K112" s="4">
+        <v>0</v>
+      </c>
+      <c r="J112" s="4">
         <f>COUNTIFS(A112:A1025,G112,D112:D1025,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="M112" s="9"/>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="2" t="s">
         <v>20</v>
       </c>
@@ -4517,23 +4631,24 @@
       <c r="D113" s="2">
         <v>1</v>
       </c>
-      <c r="G113" s="4" t="s">
-        <v>75</v>
+      <c r="G113" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="H113" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A112:D1026,2,FALSE)</f>
-        <v>1601</v>
+        <v>1570</v>
       </c>
       <c r="I113" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A112:D1026,3,FALSE)</f>
-        <v>0.53295606374740601</v>
-      </c>
-      <c r="K113" s="4">
+        <v>0.52263647317886353</v>
+      </c>
+      <c r="J113" s="4">
         <f>COUNTIFS(A113:A1026,G113,D113:D1026,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="M113" s="9"/>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="2" t="s">
         <v>73</v>
       </c>
@@ -4542,23 +4657,24 @@
       <c r="D114" s="2">
         <v>1</v>
       </c>
-      <c r="G114" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H114" s="4">
+      <c r="G114" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H114" s="9">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A113:D1027,2,FALSE)</f>
-        <v>1877</v>
-      </c>
-      <c r="I114" s="4">
+        <v>0</v>
+      </c>
+      <c r="I114" s="9">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A113:D1027,3,FALSE)</f>
-        <v>0.62483358383178711</v>
-      </c>
-      <c r="K114" s="4">
+        <v>0</v>
+      </c>
+      <c r="J114" s="4">
         <f>COUNTIFS(A114:A1027,G114,D114:D1027,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="M114" s="9"/>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="2" t="s">
         <v>21</v>
       </c>
@@ -4567,23 +4683,24 @@
       <c r="D115" s="2">
         <v>1</v>
       </c>
-      <c r="G115" s="4" t="s">
-        <v>81</v>
+      <c r="G115" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="H115" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A114:D1028,2,FALSE)</f>
-        <v>626</v>
+        <v>1550</v>
       </c>
       <c r="I115" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A114:D1028,3,FALSE)</f>
-        <v>0.20838882029056549</v>
-      </c>
-      <c r="K115" s="4">
+        <v>0.51597869399999996</v>
+      </c>
+      <c r="J115" s="4">
         <f>COUNTIFS(A115:A1028,G115,D115:D1028,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="M115" s="9"/>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="2" t="s">
         <v>22</v>
       </c>
@@ -4592,23 +4709,24 @@
       <c r="D116" s="2">
         <v>1</v>
       </c>
-      <c r="G116" s="4" t="s">
-        <v>90</v>
+      <c r="G116" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="H116" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A115:D1029,2,FALSE)</f>
-        <v>1142</v>
+        <v>331</v>
       </c>
       <c r="I116" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A115:D1029,3,FALSE)</f>
-        <v>0.38015979528427124</v>
-      </c>
-      <c r="K116" s="4">
+        <v>0.11018642038106918</v>
+      </c>
+      <c r="J116" s="4">
         <f>COUNTIFS(A116:A1029,G116,D116:D1029,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="M116" s="9"/>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="2" t="s">
         <v>5</v>
       </c>
@@ -4621,23 +4739,24 @@
       <c r="D117" s="2">
         <v>1</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>91</v>
+      <c r="G117" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="H117" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A116:D1030,2,FALSE)</f>
-        <v>1143</v>
+        <v>2901</v>
       </c>
       <c r="I117" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A116:D1030,3,FALSE)</f>
-        <v>0.3804926872253418</v>
-      </c>
-      <c r="K117" s="4">
+        <v>0.96571236800000004</v>
+      </c>
+      <c r="J117" s="4">
         <f>COUNTIFS(A117:A1030,G117,D117:D1030,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="M117" s="9"/>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="2" t="s">
         <v>19</v>
       </c>
@@ -4650,23 +4769,24 @@
       <c r="D118" s="2">
         <v>1</v>
       </c>
-      <c r="G118" s="4" t="s">
-        <v>93</v>
+      <c r="G118" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="H118" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A117:D1031,2,FALSE)</f>
-        <v>1585</v>
+        <v>835</v>
       </c>
       <c r="I118" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A117:D1031,3,FALSE)</f>
-        <v>0.52762985229492188</v>
-      </c>
-      <c r="K118" s="4">
+        <v>0.277962714</v>
+      </c>
+      <c r="J118" s="4">
         <f>COUNTIFS(A118:A1031,G118,D118:D1031,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="M118" s="9"/>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="2" t="s">
         <v>74</v>
       </c>
@@ -4679,23 +4799,24 @@
       <c r="D119" s="2">
         <v>1</v>
       </c>
-      <c r="G119" s="4" t="s">
-        <v>104</v>
+      <c r="G119" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="H119" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A118:D1032,2,FALSE)</f>
-        <v>1954</v>
+        <v>59</v>
       </c>
       <c r="I119" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A118:D1032,3,FALSE)</f>
-        <v>0.65046602487564087</v>
-      </c>
-      <c r="K119" s="4">
+        <v>0</v>
+      </c>
+      <c r="J119" s="4">
         <f>COUNTIFS(A119:A1032,G119,D119:D1032,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="M119" s="9"/>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="2" t="s">
         <v>58</v>
       </c>
@@ -4708,23 +4829,24 @@
       <c r="D120" s="2">
         <v>0</v>
       </c>
-      <c r="G120" s="4" t="s">
-        <v>105</v>
+      <c r="G120" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="H120" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A119:D1033,2,FALSE)</f>
-        <v>2226</v>
+        <v>195</v>
       </c>
       <c r="I120" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A119:D1033,3,FALSE)</f>
-        <v>0.74101197719573975</v>
-      </c>
-      <c r="K120" s="4">
+        <v>0</v>
+      </c>
+      <c r="J120" s="4">
         <f>COUNTIFS(A120:A1033,G120,D120:D1033,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="M120" s="9"/>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="2" t="s">
         <v>67</v>
       </c>
@@ -4737,23 +4859,24 @@
       <c r="D121" s="2">
         <v>0</v>
       </c>
-      <c r="G121" s="4" t="s">
-        <v>112</v>
+      <c r="G121" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="H121" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A120:D1034,2,FALSE)</f>
-        <v>0</v>
+        <v>1585</v>
       </c>
       <c r="I121" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A120:D1034,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K121" s="4">
+        <v>0.52762985229492188</v>
+      </c>
+      <c r="J121" s="4">
         <f>COUNTIFS(A121:A1034,G121,D121:D1034,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="M121" s="9"/>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="2" t="s">
         <v>75</v>
       </c>
@@ -4766,23 +4889,24 @@
       <c r="D122" s="2">
         <v>0</v>
       </c>
-      <c r="G122" s="4" t="s">
-        <v>113</v>
+      <c r="G122" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="H122" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A121:D1035,2,FALSE)</f>
-        <v>59</v>
+        <v>553</v>
       </c>
       <c r="I122" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A121:D1035,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K122" s="4">
+        <v>0.18408788700000001</v>
+      </c>
+      <c r="J122" s="4">
         <f>COUNTIFS(A122:A1035,G122,D122:D1035,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="M122" s="9"/>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="2" t="s">
         <v>50</v>
       </c>
@@ -4795,23 +4919,24 @@
       <c r="D123" s="2">
         <v>0</v>
       </c>
-      <c r="G123" s="4" t="s">
-        <v>119</v>
+      <c r="G123" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="H123" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A122:D1036,2,FALSE)</f>
-        <v>2367</v>
+        <v>409</v>
       </c>
       <c r="I123" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A122:D1036,3,FALSE)</f>
-        <v>0.78794938325881958</v>
-      </c>
-      <c r="K123" s="4">
+        <v>0.13615179061889648</v>
+      </c>
+      <c r="J123" s="4">
         <f>COUNTIFS(A123:A1036,G123,D123:D1036,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="M123" s="9"/>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="2" t="s">
         <v>76</v>
       </c>
@@ -4824,23 +4949,24 @@
       <c r="D124" s="2">
         <v>0</v>
       </c>
-      <c r="G124" s="4" t="s">
-        <v>126</v>
+      <c r="G124" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="H124" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A123:D1037,2,FALSE)</f>
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="I124" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A123:D1037,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K124" s="4">
+        <v>0.20838882029056549</v>
+      </c>
+      <c r="J124" s="4">
         <f>COUNTIFS(A124:A1037,G124,D124:D1037,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="M124" s="9"/>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="2" t="s">
         <v>77</v>
       </c>
@@ -4853,23 +4979,24 @@
       <c r="D125" s="2">
         <v>0</v>
       </c>
-      <c r="G125" s="4" t="s">
-        <v>128</v>
+      <c r="G125" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="H125" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A124:D1038,2,FALSE)</f>
-        <v>101</v>
+        <v>1175</v>
       </c>
       <c r="I125" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A124:D1038,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K125" s="4">
+        <v>0.39114514</v>
+      </c>
+      <c r="J125" s="4">
         <f>COUNTIFS(A125:A1038,G125,D125:D1038,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="M125" s="9"/>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="2" t="s">
         <v>21</v>
       </c>
@@ -4878,23 +5005,24 @@
       <c r="D126" s="2">
         <v>1</v>
       </c>
-      <c r="G126" s="4" t="s">
-        <v>132</v>
+      <c r="G126" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="H126" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A125:D1039,2,FALSE)</f>
-        <v>409</v>
+        <v>1065</v>
       </c>
       <c r="I126" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A125:D1039,3,FALSE)</f>
-        <v>0.13615179061889648</v>
-      </c>
-      <c r="K126" s="4">
+        <v>0.35452729463577271</v>
+      </c>
+      <c r="J126" s="4">
         <f>COUNTIFS(A126:A1039,G126,D126:D1039,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="M126" s="9"/>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="2" t="s">
         <v>78</v>
       </c>
@@ -4903,23 +5031,24 @@
       <c r="D127" s="2">
         <v>1</v>
       </c>
-      <c r="G127" s="4" t="s">
-        <v>135</v>
+      <c r="G127" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="H127" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A126:D1040,2,FALSE)</f>
-        <v>675</v>
+        <v>458</v>
       </c>
       <c r="I127" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A126:D1040,3,FALSE)</f>
-        <v>0.22470040619373322</v>
-      </c>
-      <c r="K127" s="4">
+        <v>0.15246337700000001</v>
+      </c>
+      <c r="J127" s="4">
         <f>COUNTIFS(A127:A1040,G127,D127:D1040,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="M127" s="9"/>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="2" t="s">
         <v>79</v>
       </c>
@@ -4928,23 +5057,24 @@
       <c r="D128" s="2">
         <v>1</v>
       </c>
-      <c r="G128" s="4" t="s">
-        <v>136</v>
+      <c r="G128" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="H128" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A127:D1041,2,FALSE)</f>
-        <v>805</v>
+        <v>1046</v>
       </c>
       <c r="I128" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A127:D1041,3,FALSE)</f>
-        <v>0.26797604560852051</v>
-      </c>
-      <c r="K128" s="4">
+        <v>0.34820240699999999</v>
+      </c>
+      <c r="J128" s="4">
         <f>COUNTIFS(A128:A1041,G128,D128:D1041,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="M128" s="9"/>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="2" t="s">
         <v>5</v>
       </c>
@@ -4957,23 +5087,24 @@
       <c r="D129" s="2">
         <v>1</v>
       </c>
-      <c r="G129" s="4" t="s">
-        <v>143</v>
+      <c r="G129" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="H129" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A128:D1042,2,FALSE)</f>
-        <v>1065</v>
+        <v>16</v>
       </c>
       <c r="I129" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A128:D1042,3,FALSE)</f>
-        <v>0.35452729463577271</v>
-      </c>
-      <c r="K129" s="4">
+        <v>0</v>
+      </c>
+      <c r="J129" s="4">
         <f>COUNTIFS(A129:A1042,G129,D129:D1042,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="M129" s="9"/>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="2" t="s">
         <v>19</v>
       </c>
@@ -4986,23 +5117,24 @@
       <c r="D130" s="2">
         <v>1</v>
       </c>
-      <c r="G130" s="4" t="s">
-        <v>147</v>
+      <c r="G130" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="H130" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A129:D1043,2,FALSE)</f>
-        <v>2684</v>
+        <v>555</v>
       </c>
       <c r="I130" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A129:D1043,3,FALSE)</f>
-        <v>0.89347535371780396</v>
-      </c>
-      <c r="K130" s="4">
+        <v>0.18475365599999999</v>
+      </c>
+      <c r="J130" s="4">
         <f>COUNTIFS(A130:A1043,G130,D130:D1043,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="M130" s="9"/>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="2" t="s">
         <v>6</v>
       </c>
@@ -5015,23 +5147,24 @@
       <c r="D131" s="2">
         <v>1</v>
       </c>
-      <c r="G131" s="4" t="s">
-        <v>149</v>
+      <c r="G131" s="9" t="s">
+        <v>262</v>
       </c>
       <c r="H131" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A130:D1044,2,FALSE)</f>
-        <v>570</v>
+        <v>43</v>
       </c>
       <c r="I131" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A130:D1044,3,FALSE)</f>
-        <v>0.189747006</v>
-      </c>
-      <c r="K131" s="4">
+        <v>0</v>
+      </c>
+      <c r="J131" s="4">
         <f>COUNTIFS(A131:A1044,G131,D131:D1044,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="M131" s="9"/>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="2" t="s">
         <v>39</v>
       </c>
@@ -5044,23 +5177,24 @@
       <c r="D132" s="2">
         <v>1</v>
       </c>
-      <c r="G132" s="4" t="s">
-        <v>150</v>
+      <c r="G132" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="H132" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A131:D1045,2,FALSE)</f>
-        <v>1882</v>
+        <v>101</v>
       </c>
       <c r="I132" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A131:D1045,3,FALSE)</f>
-        <v>0.62649798400000001</v>
-      </c>
-      <c r="K132" s="4">
+        <v>0</v>
+      </c>
+      <c r="J132" s="4">
         <f>COUNTIFS(A132:A1045,G132,D132:D1045,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="M132" s="9"/>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="2" t="s">
         <v>7</v>
       </c>
@@ -5073,23 +5207,24 @@
       <c r="D133" s="2">
         <v>0</v>
       </c>
-      <c r="G133" s="4" t="s">
-        <v>153</v>
+      <c r="G133" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="H133" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A132:D1046,2,FALSE)</f>
-        <v>418</v>
+        <v>2684</v>
       </c>
       <c r="I133" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A132:D1046,3,FALSE)</f>
-        <v>0.13914780299999999</v>
-      </c>
-      <c r="K133" s="4">
+        <v>0.89347535371780396</v>
+      </c>
+      <c r="J133" s="4">
         <f>COUNTIFS(A133:A1046,G133,D133:D1046,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="M133" s="9"/>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="2" t="s">
         <v>80</v>
       </c>
@@ -5102,23 +5237,24 @@
       <c r="D134" s="2">
         <v>1</v>
       </c>
-      <c r="G134" s="4" t="s">
-        <v>154</v>
+      <c r="G134" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="H134" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A133:D1047,2,FALSE)</f>
-        <v>601</v>
+        <v>2999</v>
       </c>
       <c r="I134" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A133:D1047,3,FALSE)</f>
-        <v>0.20006658136844635</v>
-      </c>
-      <c r="K134" s="4">
+        <v>0.99436336755752597</v>
+      </c>
+      <c r="J134" s="4">
         <f>COUNTIFS(A134:A1047,G134,D134:D1047,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="M134" s="9"/>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="2" t="s">
         <v>81</v>
       </c>
@@ -5131,23 +5267,24 @@
       <c r="D135" s="2">
         <v>0</v>
       </c>
-      <c r="G135" s="4" t="s">
-        <v>155</v>
+      <c r="G135" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="H135" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A134:D1048,2,FALSE)</f>
-        <v>613</v>
+        <v>1954</v>
       </c>
       <c r="I135" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A134:D1048,3,FALSE)</f>
-        <v>0.20406125485897064</v>
-      </c>
-      <c r="K135" s="4">
+        <v>0.65046602487564087</v>
+      </c>
+      <c r="J135" s="4">
         <f>COUNTIFS(A135:A1048,G135,D135:D1048,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="M135" s="9"/>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="2" t="s">
         <v>67</v>
       </c>
@@ -5160,23 +5297,24 @@
       <c r="D136" s="2">
         <v>0</v>
       </c>
-      <c r="G136" s="4" t="s">
-        <v>156</v>
+      <c r="G136" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="H136" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A135:D1049,2,FALSE)</f>
-        <v>2802</v>
+        <v>575</v>
       </c>
       <c r="I136" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A135:D1049,3,FALSE)</f>
-        <v>0.93275630474090576</v>
-      </c>
-      <c r="K136" s="4">
+        <v>0.19141145100000001</v>
+      </c>
+      <c r="J136" s="4">
         <f>COUNTIFS(A136:A1049,G136,D136:D1049,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="M136" s="9"/>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="2" t="s">
         <v>11</v>
       </c>
@@ -5189,23 +5327,24 @@
       <c r="D137" s="2">
         <v>0</v>
       </c>
-      <c r="G137" s="4" t="s">
-        <v>161</v>
+      <c r="G137" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="H137" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A136:D1050,2,FALSE)</f>
-        <v>650</v>
+        <v>1142</v>
       </c>
       <c r="I137" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A136:D1050,3,FALSE)</f>
-        <v>0.21637816700000001</v>
-      </c>
-      <c r="K137" s="4">
+        <v>0.38015979528427124</v>
+      </c>
+      <c r="J137" s="4">
         <f>COUNTIFS(A137:A1050,G137,D137:D1050,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="M137" s="9"/>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="2" t="s">
         <v>35</v>
       </c>
@@ -5218,23 +5357,24 @@
       <c r="D138" s="2">
         <v>0</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>164</v>
+      <c r="G138" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="H138" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A137:D1051,2,FALSE)</f>
-        <v>277</v>
+        <v>675</v>
       </c>
       <c r="I138" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A137:D1051,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K138" s="4">
+        <v>0.22470040619373322</v>
+      </c>
+      <c r="J138" s="4">
         <f>COUNTIFS(A138:A1051,G138,D138:D1051,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="M138" s="9"/>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="2" t="s">
         <v>42</v>
       </c>
@@ -5247,23 +5387,24 @@
       <c r="D139" s="2">
         <v>0</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>165</v>
+      <c r="G139" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="H139" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A138:D1052,2,FALSE)</f>
-        <v>1281</v>
+        <v>88</v>
       </c>
       <c r="I139" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A138:D1052,3,FALSE)</f>
-        <v>0.42643141699999998</v>
-      </c>
-      <c r="K139" s="4">
+        <v>0</v>
+      </c>
+      <c r="J139" s="4">
         <f>COUNTIFS(A139:A1052,G139,D139:D1052,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="M139" s="9"/>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="2" t="s">
         <v>50</v>
       </c>
@@ -5276,23 +5417,24 @@
       <c r="D140" s="2">
         <v>0</v>
       </c>
-      <c r="G140" s="4" t="s">
-        <v>166</v>
+      <c r="G140" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="H140" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A139:D1053,2,FALSE)</f>
-        <v>1733</v>
+        <v>63</v>
       </c>
       <c r="I140" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A139:D1053,3,FALSE)</f>
-        <v>0.57689744200000004</v>
-      </c>
-      <c r="K140" s="4">
+        <v>0</v>
+      </c>
+      <c r="J140" s="4">
         <f>COUNTIFS(A140:A1053,G140,D140:D1053,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="M140" s="9"/>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="2" t="s">
         <v>82</v>
       </c>
@@ -5305,23 +5447,24 @@
       <c r="D141" s="2">
         <v>0</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>167</v>
+      <c r="G141" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="H141" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A140:D1054,2,FALSE)</f>
-        <v>2617</v>
+        <v>1871</v>
       </c>
       <c r="I141" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A140:D1054,3,FALSE)</f>
-        <v>0.87117177199999996</v>
-      </c>
-      <c r="K141" s="4">
+        <v>0.62283623200000005</v>
+      </c>
+      <c r="J141" s="4">
         <f>COUNTIFS(A141:A1054,G141,D141:D1054,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="M141" s="9"/>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="2" t="s">
         <v>83</v>
       </c>
@@ -5334,23 +5477,24 @@
       <c r="D142" s="2">
         <v>0</v>
       </c>
-      <c r="G142" s="4" t="s">
-        <v>168</v>
+      <c r="G142" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="H142" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A141:D1055,2,FALSE)</f>
-        <v>5</v>
+        <v>229</v>
       </c>
       <c r="I142" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A141:D1055,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K142" s="4">
+      <c r="J142" s="4">
         <f>COUNTIFS(A142:A1055,G142,D142:D1055,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="M142" s="9"/>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="2" t="s">
         <v>37</v>
       </c>
@@ -5363,23 +5507,24 @@
       <c r="D143" s="2">
         <v>0</v>
       </c>
-      <c r="G143" s="4" t="s">
-        <v>169</v>
+      <c r="G143" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="H143" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A142:D1056,2,FALSE)</f>
-        <v>2018</v>
+        <v>132</v>
       </c>
       <c r="I143" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A142:D1056,3,FALSE)</f>
-        <v>0.67177098989486694</v>
-      </c>
-      <c r="K143" s="4">
+        <v>0</v>
+      </c>
+      <c r="J143" s="4">
         <f>COUNTIFS(A143:A1056,G143,D143:D1056,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="M143" s="9"/>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="2" t="s">
         <v>84</v>
       </c>
@@ -5392,23 +5537,24 @@
       <c r="D144" s="2">
         <v>0</v>
       </c>
-      <c r="G144" s="4" t="s">
-        <v>170</v>
+      <c r="G144" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="H144" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A143:D1057,2,FALSE)</f>
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="I144" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A143:D1057,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K144" s="4">
+      <c r="J144" s="4">
         <f>COUNTIFS(A144:A1057,G144,D144:D1057,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="M144" s="9"/>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="2" t="s">
         <v>21</v>
       </c>
@@ -5417,23 +5563,24 @@
       <c r="D145" s="2">
         <v>1</v>
       </c>
-      <c r="G145" s="4" t="s">
-        <v>172</v>
+      <c r="G145" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="H145" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A144:D1058,2,FALSE)</f>
-        <v>503</v>
+        <v>859</v>
       </c>
       <c r="I145" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A144:D1058,3,FALSE)</f>
-        <v>0.1674434095621109</v>
-      </c>
-      <c r="K145" s="4">
+        <v>0.28595206099999998</v>
+      </c>
+      <c r="J145" s="4">
         <f>COUNTIFS(A145:A1058,G145,D145:D1058,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="M145" s="9"/>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="2" t="s">
         <v>44</v>
       </c>
@@ -5446,23 +5593,24 @@
       <c r="D146" s="2">
         <v>1</v>
       </c>
-      <c r="G146" s="4" t="s">
-        <v>177</v>
+      <c r="G146" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="H146" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A145:D1059,2,FALSE)</f>
-        <v>51</v>
+        <v>2617</v>
       </c>
       <c r="I146" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A145:D1059,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K146" s="4">
+        <v>0.87117177199999996</v>
+      </c>
+      <c r="J146" s="4">
         <f>COUNTIFS(A146:A1059,G146,D146:D1059,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="M146" s="9"/>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="2" t="s">
         <v>5</v>
       </c>
@@ -5475,23 +5623,24 @@
       <c r="D147" s="2">
         <v>0</v>
       </c>
-      <c r="G147" s="4" t="s">
-        <v>178</v>
+      <c r="G147" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="H147" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A146:D1060,2,FALSE)</f>
-        <v>91</v>
+        <v>1687</v>
       </c>
       <c r="I147" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A146:D1060,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K147" s="4">
+        <v>0.56158453200000003</v>
+      </c>
+      <c r="J147" s="4">
         <f>COUNTIFS(A147:A1060,G147,D147:D1060,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="M147" s="9"/>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="2" t="s">
         <v>19</v>
       </c>
@@ -5504,23 +5653,24 @@
       <c r="D148" s="2">
         <v>1</v>
       </c>
-      <c r="G148" s="4" t="s">
-        <v>179</v>
+      <c r="G148" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="H148" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A147:D1061,2,FALSE)</f>
-        <v>146</v>
+        <v>1967</v>
       </c>
       <c r="I148" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A147:D1061,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K148" s="4">
+        <v>0.65479361999999997</v>
+      </c>
+      <c r="J148" s="4">
         <f>COUNTIFS(A148:A1061,G148,D148:D1061,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="M148" s="9"/>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="2" t="s">
         <v>85</v>
       </c>
@@ -5533,23 +5683,24 @@
       <c r="D149" s="2">
         <v>0</v>
       </c>
-      <c r="G149" s="4" t="s">
-        <v>180</v>
+      <c r="G149" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="H149" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A148:D1062,2,FALSE)</f>
-        <v>555</v>
+        <v>1708</v>
       </c>
       <c r="I149" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A148:D1062,3,FALSE)</f>
-        <v>0.18475365599999999</v>
-      </c>
-      <c r="K149" s="4">
+        <v>0.56857520299999997</v>
+      </c>
+      <c r="J149" s="4">
         <f>COUNTIFS(A149:A1062,G149,D149:D1062,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="M149" s="9"/>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="2" t="s">
         <v>38</v>
       </c>
@@ -5562,23 +5713,24 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-      <c r="G150" s="4" t="s">
-        <v>181</v>
+      <c r="G150" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="H150" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A149:D1063,2,FALSE)</f>
-        <v>859</v>
+        <v>2243</v>
       </c>
       <c r="I150" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A149:D1063,3,FALSE)</f>
-        <v>0.28595206099999998</v>
-      </c>
-      <c r="K150" s="4">
+        <v>0.74667108100000001</v>
+      </c>
+      <c r="J150" s="4">
         <f>COUNTIFS(A150:A1063,G150,D150:D1063,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="M150" s="9"/>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="2" t="s">
         <v>53</v>
       </c>
@@ -5591,23 +5743,24 @@
       <c r="D151" s="2">
         <v>0</v>
       </c>
-      <c r="G151" s="4" t="s">
-        <v>184</v>
+      <c r="G151" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="H151" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A150:D1064,2,FALSE)</f>
-        <v>1514</v>
+        <v>724</v>
       </c>
       <c r="I151" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A150:D1064,3,FALSE)</f>
-        <v>0.50399470300000004</v>
-      </c>
-      <c r="K151" s="4">
+        <v>0.24101197699999999</v>
+      </c>
+      <c r="J151" s="4">
         <f>COUNTIFS(A151:A1064,G151,D151:D1064,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="M151" s="9"/>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="2" t="s">
         <v>45</v>
       </c>
@@ -5620,23 +5773,24 @@
       <c r="D152" s="2">
         <v>0</v>
       </c>
-      <c r="G152" s="4" t="s">
-        <v>185</v>
+      <c r="G152" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="H152" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A151:D1065,2,FALSE)</f>
-        <v>1971</v>
+        <v>1281</v>
       </c>
       <c r="I152" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A151:D1065,3,FALSE)</f>
-        <v>0.65612518799999997</v>
-      </c>
-      <c r="K152" s="4">
+        <v>0.42643141699999998</v>
+      </c>
+      <c r="J152" s="4">
         <f>COUNTIFS(A152:A1065,G152,D152:D1065,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="M152" s="9"/>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="2" t="s">
         <v>86</v>
       </c>
@@ -5649,23 +5803,24 @@
       <c r="D153" s="2">
         <v>1</v>
       </c>
-      <c r="G153" s="4" t="s">
-        <v>186</v>
+      <c r="G153" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="H153" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A152:D1066,2,FALSE)</f>
-        <v>2243</v>
+        <v>2759</v>
       </c>
       <c r="I153" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A152:D1066,3,FALSE)</f>
-        <v>0.74667108100000001</v>
-      </c>
-      <c r="K153" s="4">
+        <v>0.91844207</v>
+      </c>
+      <c r="J153" s="4">
         <f>COUNTIFS(A153:A1066,G153,D153:D1066,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="M153" s="9"/>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="2" t="s">
         <v>87</v>
       </c>
@@ -5678,23 +5833,24 @@
       <c r="D154" s="2">
         <v>0</v>
       </c>
-      <c r="G154" s="4" t="s">
-        <v>187</v>
+      <c r="G154" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="H154" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A153:D1067,2,FALSE)</f>
-        <v>331</v>
+        <v>650</v>
       </c>
       <c r="I154" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A153:D1067,3,FALSE)</f>
-        <v>0.11018642038106918</v>
-      </c>
-      <c r="K154" s="4">
+        <v>0.21637816700000001</v>
+      </c>
+      <c r="J154" s="4">
         <f>COUNTIFS(A154:A1067,G154,D154:D1067,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="M154" s="9"/>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="2" t="s">
         <v>9</v>
       </c>
@@ -5707,23 +5863,24 @@
       <c r="D155" s="2">
         <v>0</v>
       </c>
-      <c r="G155" s="4" t="s">
-        <v>196</v>
+      <c r="G155" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="H155" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A154:D1068,2,FALSE)</f>
-        <v>923</v>
+        <v>503</v>
       </c>
       <c r="I155" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A154:D1068,3,FALSE)</f>
-        <v>0.30725699699999998</v>
-      </c>
-      <c r="K155" s="4">
+        <v>0.1674434095621109</v>
+      </c>
+      <c r="J155" s="4">
         <f>COUNTIFS(A155:A1068,G155,D155:D1068,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="M155" s="9"/>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="2" t="s">
         <v>88</v>
       </c>
@@ -5736,23 +5893,24 @@
       <c r="D156" s="2">
         <v>0</v>
       </c>
-      <c r="G156" s="4" t="s">
-        <v>197</v>
+      <c r="G156" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="H156" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A155:D1069,2,FALSE)</f>
-        <v>1427</v>
+        <v>358</v>
       </c>
       <c r="I156" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A155:D1069,3,FALSE)</f>
-        <v>0.47503328299999997</v>
-      </c>
-      <c r="K156" s="4">
+        <v>0.11917443599999999</v>
+      </c>
+      <c r="J156" s="4">
         <f>COUNTIFS(A156:A1069,G156,D156:D1069,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="M156" s="9"/>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="2" t="s">
         <v>89</v>
       </c>
@@ -5765,23 +5923,24 @@
       <c r="D157" s="2">
         <v>0</v>
       </c>
-      <c r="G157" s="4" t="s">
-        <v>198</v>
+      <c r="G157" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="H157" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A156:D1070,2,FALSE)</f>
-        <v>1871</v>
+        <v>418</v>
       </c>
       <c r="I157" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A156:D1070,3,FALSE)</f>
-        <v>0.62283623200000005</v>
-      </c>
-      <c r="K157" s="4">
+        <v>0.13914780299999999</v>
+      </c>
+      <c r="J157" s="4">
         <f>COUNTIFS(A157:A1070,G157,D157:D1070,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="M157" s="9"/>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="2" t="s">
         <v>31</v>
       </c>
@@ -5794,23 +5953,24 @@
       <c r="D158" s="2">
         <v>0</v>
       </c>
-      <c r="G158" s="4" t="s">
-        <v>199</v>
+      <c r="G158" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="H158" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A157:D1071,2,FALSE)</f>
-        <v>2991</v>
+        <v>50</v>
       </c>
       <c r="I158" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A157:D1071,3,FALSE)</f>
-        <v>0.99567246399999998</v>
-      </c>
-      <c r="K158" s="4">
+        <v>0</v>
+      </c>
+      <c r="J158" s="4">
         <f>COUNTIFS(A158:A1071,G158,D158:D1071,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="M158" s="9"/>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="2" t="s">
         <v>57</v>
       </c>
@@ -5823,23 +5983,24 @@
       <c r="D159" s="2">
         <v>0</v>
       </c>
-      <c r="G159" s="4" t="s">
-        <v>200</v>
+      <c r="G159" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="H159" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A158:D1072,2,FALSE)</f>
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I159" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A158:D1072,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K159" s="4">
+      <c r="J159" s="4">
         <f>COUNTIFS(A159:A1072,G159,D159:D1072,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="M159" s="9"/>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="2" t="s">
         <v>67</v>
       </c>
@@ -5852,23 +6013,24 @@
       <c r="D160" s="2">
         <v>0</v>
       </c>
-      <c r="G160" s="4" t="s">
-        <v>202</v>
+      <c r="G160" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="H160" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A159:D1073,2,FALSE)</f>
-        <v>431</v>
+        <v>2507</v>
       </c>
       <c r="I160" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A159:D1073,3,FALSE)</f>
-        <v>0.14347536899999999</v>
-      </c>
-      <c r="K160" s="4">
+        <v>0.83455395700000001</v>
+      </c>
+      <c r="J160" s="4">
         <f>COUNTIFS(A160:A1073,G160,D160:D1073,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="M160" s="9"/>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="2" t="s">
         <v>11</v>
       </c>
@@ -5881,23 +6043,24 @@
       <c r="D161" s="2">
         <v>0</v>
       </c>
-      <c r="G161" s="4" t="s">
-        <v>203</v>
+      <c r="G161" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="H161" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A160:D1074,2,FALSE)</f>
-        <v>724</v>
+        <v>146</v>
       </c>
       <c r="I161" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A160:D1074,3,FALSE)</f>
-        <v>0.24101197699999999</v>
-      </c>
-      <c r="K161" s="4">
+        <v>0</v>
+      </c>
+      <c r="J161" s="4">
         <f>COUNTIFS(A161:A1074,G161,D161:D1074,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="M161" s="9"/>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="2" t="s">
         <v>33</v>
       </c>
@@ -5910,23 +6073,24 @@
       <c r="D162" s="2">
         <v>0</v>
       </c>
-      <c r="G162" s="4" t="s">
-        <v>204</v>
+      <c r="G162" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="H162" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A161:D1075,2,FALSE)</f>
-        <v>1175</v>
+        <v>2367</v>
       </c>
       <c r="I162" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A161:D1075,3,FALSE)</f>
-        <v>0.39114514</v>
-      </c>
-      <c r="K162" s="4">
+        <v>0.78794938325881958</v>
+      </c>
+      <c r="J162" s="4">
         <f>COUNTIFS(A162:A1075,G162,D162:D1075,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="M162" s="9"/>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="2" t="s">
         <v>13</v>
       </c>
@@ -5939,23 +6103,24 @@
       <c r="D163" s="2">
         <v>0</v>
       </c>
-      <c r="G163" s="4" t="s">
-        <v>205</v>
+      <c r="G163" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="H163" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A162:D1076,2,FALSE)</f>
-        <v>1684</v>
+        <v>990</v>
       </c>
       <c r="I163" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A162:D1076,3,FALSE)</f>
-        <v>0.56058585599999999</v>
-      </c>
-      <c r="K163" s="4">
+        <v>0.32956057799999999</v>
+      </c>
+      <c r="J163" s="4">
         <f>COUNTIFS(A163:A1076,G163,D163:D1076,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="M163" s="9"/>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="2" t="s">
         <v>90</v>
       </c>
@@ -5968,23 +6133,24 @@
       <c r="D164" s="2">
         <v>0</v>
       </c>
-      <c r="G164" s="4" t="s">
-        <v>206</v>
+      <c r="G164" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="H164" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A163:D1077,2,FALSE)</f>
-        <v>1687</v>
+        <v>110</v>
       </c>
       <c r="I164" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A163:D1077,3,FALSE)</f>
-        <v>0.56158453200000003</v>
-      </c>
-      <c r="K164" s="4">
+        <v>0</v>
+      </c>
+      <c r="J164" s="4">
         <f>COUNTIFS(A164:A1077,G164,D164:D1077,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="M164" s="9"/>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="2" t="s">
         <v>91</v>
       </c>
@@ -5997,23 +6163,24 @@
       <c r="D165" s="2">
         <v>0</v>
       </c>
-      <c r="G165" s="4" t="s">
-        <v>207</v>
+      <c r="G165" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="H165" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A164:D1078,2,FALSE)</f>
-        <v>1708</v>
+        <v>277</v>
       </c>
       <c r="I165" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A164:D1078,3,FALSE)</f>
-        <v>0.56857520299999997</v>
-      </c>
-      <c r="K165" s="4">
+        <v>0</v>
+      </c>
+      <c r="J165" s="4">
         <f>COUNTIFS(A165:A1078,G165,D165:D1078,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="M165" s="9"/>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="2" t="s">
         <v>41</v>
       </c>
@@ -6026,23 +6193,24 @@
       <c r="D166" s="2">
         <v>0</v>
       </c>
-      <c r="G166" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H166" s="4">
+      <c r="G166" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H166" s="9">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A165:D1079,2,FALSE)</f>
-        <v>195</v>
-      </c>
-      <c r="I166" s="4">
+        <v>11</v>
+      </c>
+      <c r="I166" s="9">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A165:D1079,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K166" s="4">
+      <c r="J166" s="4">
         <f>COUNTIFS(A166:A1079,G166,D166:D1079,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="M166" s="9"/>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="2" t="s">
         <v>34</v>
       </c>
@@ -6055,23 +6223,24 @@
       <c r="D167" s="2">
         <v>0</v>
       </c>
-      <c r="G167" s="4" t="s">
-        <v>209</v>
+      <c r="G167" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="H167" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A166:D1080,2,FALSE)</f>
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="I167" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A166:D1080,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K167" s="4">
+      <c r="J167" s="4">
         <f>COUNTIFS(A167:A1080,G167,D167:D1080,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="M167" s="9"/>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="2" t="s">
         <v>92</v>
       </c>
@@ -6084,23 +6253,24 @@
       <c r="D168" s="2">
         <v>0</v>
       </c>
-      <c r="G168" s="4" t="s">
-        <v>210</v>
+      <c r="G168" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="H168" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A167:D1081,2,FALSE)</f>
-        <v>835</v>
+        <v>65</v>
       </c>
       <c r="I168" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A167:D1081,3,FALSE)</f>
-        <v>0.277962714</v>
-      </c>
-      <c r="K168" s="4">
+        <v>0</v>
+      </c>
+      <c r="J168" s="4">
         <f>COUNTIFS(A168:A1081,G168,D168:D1081,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M168" s="9"/>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="2" t="s">
         <v>42</v>
       </c>
@@ -6113,23 +6283,24 @@
       <c r="D169" s="2">
         <v>0</v>
       </c>
-      <c r="G169" s="4" t="s">
-        <v>211</v>
+      <c r="G169" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="H169" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A168:D1082,2,FALSE)</f>
-        <v>1046</v>
+        <v>35</v>
       </c>
       <c r="I169" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A168:D1082,3,FALSE)</f>
-        <v>0.34820240699999999</v>
-      </c>
-      <c r="K169" s="4">
+        <v>0</v>
+      </c>
+      <c r="J169" s="4">
         <f>COUNTIFS(A169:A1082,G169,D169:D1082,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M169" s="9"/>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="2" t="s">
         <v>15</v>
       </c>
@@ -6142,23 +6313,24 @@
       <c r="D170" s="2">
         <v>0</v>
       </c>
-      <c r="G170" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H170" s="4">
+      <c r="G170" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H170" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A169:D1083,2,FALSE)</f>
-        <v>1550</v>
-      </c>
-      <c r="I170" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I170" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A169:D1083,3,FALSE)</f>
-        <v>0.51597869399999996</v>
-      </c>
-      <c r="K170" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J170" s="4">
         <f>COUNTIFS(A170:A1083,G170,D170:D1083,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M170" s="9"/>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="2" t="s">
         <v>93</v>
       </c>
@@ -6171,23 +6343,24 @@
       <c r="D171" s="2">
         <v>0</v>
       </c>
-      <c r="G171" s="4" t="s">
-        <v>214</v>
+      <c r="G171" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="H171" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A170:D1084,2,FALSE)</f>
-        <v>2759</v>
+        <v>60</v>
       </c>
       <c r="I171" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A170:D1084,3,FALSE)</f>
-        <v>0.91844207</v>
-      </c>
-      <c r="K171" s="4">
+        <v>0</v>
+      </c>
+      <c r="J171" s="4">
         <f>COUNTIFS(A171:A1084,G171,D171:D1084,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M171" s="9"/>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="2" t="s">
         <v>94</v>
       </c>
@@ -6200,23 +6373,24 @@
       <c r="D172" s="2">
         <v>0</v>
       </c>
-      <c r="G172" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H172" s="4">
+      <c r="G172" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H172" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A171:D1085,2,FALSE)</f>
-        <v>458</v>
-      </c>
-      <c r="I172" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I172" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A171:D1085,3,FALSE)</f>
-        <v>0.15246337700000001</v>
-      </c>
-      <c r="K172" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J172" s="4">
         <f>COUNTIFS(A172:A1085,G172,D172:D1085,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M172" s="9"/>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="2" t="s">
         <v>37</v>
       </c>
@@ -6229,23 +6403,24 @@
       <c r="D173" s="2">
         <v>0</v>
       </c>
-      <c r="G173" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H173" s="4">
+      <c r="G173" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H173" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A172:D1086,2,FALSE)</f>
-        <v>1967</v>
-      </c>
-      <c r="I173" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I173" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A172:D1086,3,FALSE)</f>
-        <v>0.65479361999999997</v>
-      </c>
-      <c r="K173" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J173" s="4">
         <f>COUNTIFS(A173:A1086,G173,D173:D1086,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M173" s="9"/>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="2" t="s">
         <v>95</v>
       </c>
@@ -6258,23 +6433,24 @@
       <c r="D174" s="2">
         <v>0</v>
       </c>
-      <c r="G174" s="4" t="s">
-        <v>217</v>
+      <c r="G174" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="H174" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A173:D1087,2,FALSE)</f>
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="I174" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A173:D1087,3,FALSE)</f>
-        <v>0.19141145100000001</v>
-      </c>
-      <c r="K174" s="4">
+        <v>0</v>
+      </c>
+      <c r="J174" s="4">
         <f>COUNTIFS(A174:A1087,G174,D174:D1087,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M174" s="9"/>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="2" t="s">
         <v>44</v>
       </c>
@@ -6287,23 +6463,24 @@
       <c r="D175" s="2">
         <v>1</v>
       </c>
-      <c r="G175" s="4" t="s">
-        <v>219</v>
+      <c r="G175" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="H175" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A174:D1088,2,FALSE)</f>
-        <v>553</v>
+        <v>128</v>
       </c>
       <c r="I175" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A174:D1088,3,FALSE)</f>
-        <v>0.18408788700000001</v>
-      </c>
-      <c r="K175" s="4">
+        <v>0</v>
+      </c>
+      <c r="J175" s="4">
         <f>COUNTIFS(A175:A1088,G175,D175:D1088,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M175" s="9"/>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="2" t="s">
         <v>6</v>
       </c>
@@ -6316,23 +6493,24 @@
       <c r="D176" s="2">
         <v>0</v>
       </c>
-      <c r="G176" s="4" t="s">
-        <v>220</v>
+      <c r="G176" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="H176" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A175:D1089,2,FALSE)</f>
-        <v>1083</v>
+        <v>208</v>
       </c>
       <c r="I176" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A175:D1089,3,FALSE)</f>
-        <v>0.36051931999999998</v>
-      </c>
-      <c r="K176" s="4">
+        <v>0</v>
+      </c>
+      <c r="J176" s="4">
         <f>COUNTIFS(A176:A1089,G176,D176:D1089,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M176" s="9"/>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="2" t="s">
         <v>74</v>
       </c>
@@ -6345,23 +6523,24 @@
       <c r="D177" s="2">
         <v>1</v>
       </c>
-      <c r="G177" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H177" s="4">
+      <c r="G177" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H177" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A176:D1090,2,FALSE)</f>
-        <v>2008</v>
-      </c>
-      <c r="I177" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I177" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A176:D1090,3,FALSE)</f>
-        <v>0.66844207</v>
-      </c>
-      <c r="K177" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J177" s="4">
         <f>COUNTIFS(A177:A1090,G177,D177:D1090,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M177" s="9"/>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="2" t="s">
         <v>96</v>
       </c>
@@ -6374,23 +6553,24 @@
       <c r="D178" s="2">
         <v>1</v>
       </c>
-      <c r="G178" s="4" t="s">
-        <v>222</v>
+      <c r="G178" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="H178" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A177:D1091,2,FALSE)</f>
-        <v>358</v>
+        <v>158</v>
       </c>
       <c r="I178" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A177:D1091,3,FALSE)</f>
-        <v>0.11917443599999999</v>
-      </c>
-      <c r="K178" s="4">
+        <v>0</v>
+      </c>
+      <c r="J178" s="4">
         <f>COUNTIFS(A178:A1091,G178,D178:D1091,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M178" s="9"/>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="2" t="s">
         <v>73</v>
       </c>
@@ -6403,23 +6583,24 @@
       <c r="D179" s="2">
         <v>1</v>
       </c>
-      <c r="G179" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H179" s="4">
+      <c r="G179" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H179" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A178:D1092,2,FALSE)</f>
-        <v>990</v>
-      </c>
-      <c r="I179" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I179" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A178:D1092,3,FALSE)</f>
-        <v>0.32956057799999999</v>
-      </c>
-      <c r="K179" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J179" s="4">
         <f>COUNTIFS(A179:A1092,G179,D179:D1092,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M179" s="9"/>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="2" t="s">
         <v>97</v>
       </c>
@@ -6432,23 +6613,24 @@
       <c r="D180" s="2">
         <v>1</v>
       </c>
-      <c r="G180" s="4" t="s">
-        <v>227</v>
+      <c r="G180" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="H180" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A179:D1093,2,FALSE)</f>
-        <v>2507</v>
+        <v>74</v>
       </c>
       <c r="I180" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A179:D1093,3,FALSE)</f>
-        <v>0.83455395700000001</v>
-      </c>
-      <c r="K180" s="4">
+        <v>0</v>
+      </c>
+      <c r="J180" s="4">
         <f>COUNTIFS(A180:A1093,G180,D180:D1093,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M180" s="9"/>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="2" t="s">
         <v>98</v>
       </c>
@@ -6461,23 +6643,24 @@
       <c r="D181" s="2">
         <v>1</v>
       </c>
-      <c r="G181" s="4" t="s">
-        <v>230</v>
+      <c r="G181" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="H181" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A180:D1094,2,FALSE)</f>
-        <v>229</v>
+        <v>1146</v>
       </c>
       <c r="I181" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A180:D1094,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K181" s="4">
+        <v>0.38149133299999999</v>
+      </c>
+      <c r="J181" s="4">
         <f>COUNTIFS(A181:A1094,G181,D181:D1094,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M181" s="9"/>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="2" t="s">
         <v>99</v>
       </c>
@@ -6490,23 +6673,24 @@
       <c r="D182" s="2">
         <v>1</v>
       </c>
-      <c r="G182" s="4" t="s">
-        <v>235</v>
+      <c r="G182" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="H182" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A181:D1095,2,FALSE)</f>
-        <v>1694</v>
+        <v>847</v>
       </c>
       <c r="I182" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A181:D1095,3,FALSE)</f>
-        <v>0.56391477599999995</v>
-      </c>
-      <c r="K182" s="4">
+        <v>0.28195738792419434</v>
+      </c>
+      <c r="J182" s="4">
         <f>COUNTIFS(A182:A1095,G182,D182:D1095,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M182" s="9"/>
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" s="2" t="s">
         <v>7</v>
       </c>
@@ -6519,23 +6703,24 @@
       <c r="D183" s="2">
         <v>0</v>
       </c>
-      <c r="G183" s="4" t="s">
-        <v>238</v>
+      <c r="G183" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="H183" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A182:D1096,2,FALSE)</f>
-        <v>164</v>
+        <v>605</v>
       </c>
       <c r="I183" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A182:D1096,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K183" s="4">
+        <v>0.20139813423156738</v>
+      </c>
+      <c r="J183" s="4">
         <f>COUNTIFS(A183:A1096,G183,D183:D1096,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M183" s="9"/>
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" s="2" t="s">
         <v>9</v>
       </c>
@@ -6548,23 +6733,24 @@
       <c r="D184" s="2">
         <v>0</v>
       </c>
-      <c r="G184" s="4" t="s">
-        <v>239</v>
+      <c r="G184" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="H184" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A183:D1097,2,FALSE)</f>
-        <v>2901</v>
+        <v>194</v>
       </c>
       <c r="I184" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A183:D1097,3,FALSE)</f>
-        <v>0.96571236800000004</v>
-      </c>
-      <c r="K184" s="4">
+        <v>0</v>
+      </c>
+      <c r="J184" s="4">
         <f>COUNTIFS(A184:A1097,G184,D184:D1097,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M184" s="9"/>
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" s="2" t="s">
         <v>100</v>
       </c>
@@ -6577,23 +6763,24 @@
       <c r="D185" s="2">
         <v>0</v>
       </c>
-      <c r="G185" s="4" t="s">
-        <v>242</v>
+      <c r="G185" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="H185" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A184:D1098,2,FALSE)</f>
-        <v>132</v>
+        <v>345</v>
       </c>
       <c r="I185" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A184:D1098,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K185" s="4">
+        <v>0.11484687</v>
+      </c>
+      <c r="J185" s="4">
         <f>COUNTIFS(A185:A1098,G185,D185:D1098,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M185" s="9"/>
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" s="2" t="s">
         <v>31</v>
       </c>
@@ -6606,23 +6793,24 @@
       <c r="D186" s="2">
         <v>0</v>
       </c>
-      <c r="G186" s="4" t="s">
-        <v>243</v>
+      <c r="G186" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H186" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A185:D1099,2,FALSE)</f>
-        <v>1570</v>
+        <v>0</v>
       </c>
       <c r="I186" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A185:D1099,3,FALSE)</f>
-        <v>0.52263647317886353</v>
-      </c>
-      <c r="K186" s="4">
+        <v>0</v>
+      </c>
+      <c r="J186" s="4">
         <f>COUNTIFS(A186:A1099,G186,D186:D1099,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="M186" s="9"/>
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" s="2" t="s">
         <v>67</v>
       </c>
@@ -6635,23 +6823,24 @@
       <c r="D187" s="2">
         <v>0</v>
       </c>
-      <c r="G187" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H187" s="4" t="e">
+      <c r="G187" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H187" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A186:D1100,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I187" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="I187" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A186:D1100,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K187" s="4">
+        <v>0</v>
+      </c>
+      <c r="J187" s="4">
         <f>COUNTIFS(A187:A1100,G187,D187:D1100,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:11">
+      <c r="M187" s="9"/>
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" s="2" t="s">
         <v>11</v>
       </c>
@@ -6664,23 +6853,24 @@
       <c r="D188" s="2">
         <v>0</v>
       </c>
-      <c r="G188" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H188" s="4" t="e">
+      <c r="G188" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H188" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A187:D1101,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I188" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="I188" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A187:D1101,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K188" s="4">
+        <v>0</v>
+      </c>
+      <c r="J188" s="4">
         <f>COUNTIFS(A188:A1101,G188,D188:D1101,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:11">
+      <c r="M188" s="9"/>
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" s="2" t="s">
         <v>13</v>
       </c>
@@ -6693,23 +6883,24 @@
       <c r="D189" s="2">
         <v>0</v>
       </c>
-      <c r="G189" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H189" s="4" t="e">
+      <c r="G189" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H189" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A188:D1102,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I189" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="I189" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A188:D1102,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K189" s="4">
+        <v>0</v>
+      </c>
+      <c r="J189" s="4">
         <f>COUNTIFS(A189:A1102,G189,D189:D1102,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:11">
+      <c r="M189" s="9"/>
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" s="2" t="s">
         <v>101</v>
       </c>
@@ -6722,23 +6913,24 @@
       <c r="D190" s="2">
         <v>0</v>
       </c>
-      <c r="G190" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H190" s="4" t="e">
+      <c r="G190" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H190" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A189:D1103,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I190" s="4" t="e">
+        <v>56</v>
+      </c>
+      <c r="I190" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A189:D1103,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K190" s="4">
+        <v>0</v>
+      </c>
+      <c r="J190" s="4">
         <f>COUNTIFS(A190:A1103,G190,D190:D1103,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:11">
+      <c r="M190" s="9"/>
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" s="2" t="s">
         <v>35</v>
       </c>
@@ -6751,23 +6943,24 @@
       <c r="D191" s="2">
         <v>0</v>
       </c>
-      <c r="G191" s="4" t="s">
-        <v>62</v>
+      <c r="G191" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="H191" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A190:D1104,2,FALSE)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I191" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A190:D1104,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K191" s="4">
+      <c r="J191" s="4">
         <f>COUNTIFS(A191:A1104,G191,D191:D1104,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="M191" s="9"/>
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" s="2" t="s">
         <v>102</v>
       </c>
@@ -6780,23 +6973,24 @@
       <c r="D192" s="2">
         <v>0</v>
       </c>
-      <c r="G192" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H192" s="4" t="e">
+      <c r="G192" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H192" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A191:D1105,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I192" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="I192" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A191:D1105,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K192" s="4">
+        <v>0</v>
+      </c>
+      <c r="J192" s="4">
         <f>COUNTIFS(A192:A1105,G192,D192:D1105,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="M192" s="9"/>
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" s="2" t="s">
         <v>103</v>
       </c>
@@ -6809,23 +7003,24 @@
       <c r="D193" s="2">
         <v>1</v>
       </c>
-      <c r="G193" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H193" s="4">
+      <c r="G193" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A192:D1106,2,FALSE)</f>
-        <v>159</v>
-      </c>
-      <c r="I193" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I193" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A192:D1106,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K193" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J193" s="4">
         <f>COUNTIFS(A193:A1106,G193,D193:D1106,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="M193" s="9"/>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" s="2" t="s">
         <v>104</v>
       </c>
@@ -6838,23 +7033,24 @@
       <c r="D194" s="2">
         <v>0</v>
       </c>
-      <c r="G194" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H194" s="4" t="e">
+      <c r="G194" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H194" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A193:D1107,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I194" s="4" t="e">
+        <v>915</v>
+      </c>
+      <c r="I194" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A193:D1107,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K194" s="4">
+        <v>0.30459386100000002</v>
+      </c>
+      <c r="J194" s="4">
         <f>COUNTIFS(A194:A1107,G194,D194:D1107,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="M194" s="9"/>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" s="2" t="s">
         <v>105</v>
       </c>
@@ -6867,23 +7063,24 @@
       <c r="D195" s="2">
         <v>0</v>
       </c>
-      <c r="G195" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H195" s="4" t="e">
+      <c r="G195" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H195" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A194:D1108,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I195" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="I195" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A194:D1108,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K195" s="4">
+        <v>0</v>
+      </c>
+      <c r="J195" s="4">
         <f>COUNTIFS(A195:A1108,G195,D195:D1108,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="M195" s="9"/>
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" s="2" t="s">
         <v>84</v>
       </c>
@@ -6896,23 +7093,24 @@
       <c r="D196" s="2">
         <v>0</v>
       </c>
-      <c r="G196" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H196" s="4" t="e">
+      <c r="G196" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H196" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A195:D1109,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I196" s="4" t="e">
+        <v>45</v>
+      </c>
+      <c r="I196" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A195:D1109,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K196" s="4">
+        <v>0</v>
+      </c>
+      <c r="J196" s="4">
         <f>COUNTIFS(A196:A1109,G196,D196:D1109,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="M196" s="9"/>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" s="2" t="s">
         <v>106</v>
       </c>
@@ -6921,23 +7119,24 @@
       <c r="D197" s="2">
         <v>1</v>
       </c>
-      <c r="G197" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H197" s="4" t="e">
+      <c r="G197" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H197" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A196:D1110,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I197" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="I197" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A196:D1110,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K197" s="4">
+        <v>0</v>
+      </c>
+      <c r="J197" s="4">
         <f>COUNTIFS(A197:A1110,G197,D197:D1110,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="M197" s="9"/>
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" s="2" t="s">
         <v>107</v>
       </c>
@@ -6946,23 +7145,24 @@
       <c r="D198" s="2">
         <v>1</v>
       </c>
-      <c r="G198" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H198" s="4" t="e">
+      <c r="G198" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H198" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A197:D1111,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I198" s="4" t="e">
+        <v>539</v>
+      </c>
+      <c r="I198" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A197:D1111,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K198" s="4">
+        <v>0.17942743</v>
+      </c>
+      <c r="J198" s="4">
         <f>COUNTIFS(A198:A1111,G198,D198:D1111,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:11">
+      <c r="M198" s="9"/>
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" s="2" t="s">
         <v>108</v>
       </c>
@@ -6971,23 +7171,24 @@
       <c r="D199" s="2">
         <v>1</v>
       </c>
-      <c r="G199" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H199" s="4">
+      <c r="G199" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H199" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A198:D1112,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I199" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I199" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A198:D1112,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K199" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J199" s="4">
         <f>COUNTIFS(A199:A1112,G199,D199:D1112,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="M199" s="9"/>
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" s="2" t="s">
         <v>22</v>
       </c>
@@ -6996,23 +7197,24 @@
       <c r="D200" s="2">
         <v>1</v>
       </c>
-      <c r="G200" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H200" s="4" t="e">
+      <c r="G200" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H200" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A199:D1113,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I200" s="4" t="e">
+        <v>247</v>
+      </c>
+      <c r="I200" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A199:D1113,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K200" s="4">
+        <v>0</v>
+      </c>
+      <c r="J200" s="4">
         <f>COUNTIFS(A200:A1113,G200,D200:D1113,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:11">
+      <c r="M200" s="9"/>
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" s="2" t="s">
         <v>44</v>
       </c>
@@ -7025,8 +7227,8 @@
       <c r="D201" s="2">
         <v>1</v>
       </c>
-      <c r="G201" s="4" t="s">
-        <v>103</v>
+      <c r="G201" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="H201" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A200:D1114,2,FALSE)</f>
@@ -7036,12 +7238,13 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A200:D1114,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K201" s="4">
+      <c r="J201" s="4">
         <f>COUNTIFS(A201:A1114,G201,D201:D1114,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="M201" s="9"/>
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" s="2" t="s">
         <v>19</v>
       </c>
@@ -7054,23 +7257,24 @@
       <c r="D202" s="2">
         <v>1</v>
       </c>
-      <c r="G202" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H202" s="4" t="e">
+      <c r="G202" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H202" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A201:D1115,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I202" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="I202" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A201:D1115,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K202" s="4">
+        <v>0</v>
+      </c>
+      <c r="J202" s="4">
         <f>COUNTIFS(A202:A1115,G202,D202:D1115,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:11">
+      <c r="M202" s="9"/>
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" s="2" t="s">
         <v>7</v>
       </c>
@@ -7083,23 +7287,24 @@
       <c r="D203" s="2">
         <v>0</v>
       </c>
-      <c r="G203" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H203" s="4" t="e">
+      <c r="G203" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H203" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A202:D1116,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I203" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="I203" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A202:D1116,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K203" s="4">
+        <v>0</v>
+      </c>
+      <c r="J203" s="4">
         <f>COUNTIFS(A203:A1116,G203,D203:D1116,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:11">
+      <c r="M203" s="9"/>
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" s="2" t="s">
         <v>9</v>
       </c>
@@ -7112,23 +7317,24 @@
       <c r="D204" s="2">
         <v>0</v>
       </c>
-      <c r="G204" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H204" s="4" t="e">
+      <c r="G204" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H204" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A203:D1117,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I204" s="4" t="e">
+        <v>434</v>
+      </c>
+      <c r="I204" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A203:D1117,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K204" s="4">
+        <v>0.14447402954101563</v>
+      </c>
+      <c r="J204" s="4">
         <f>COUNTIFS(A204:A1117,G204,D204:D1117,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:11">
+      <c r="M204" s="9"/>
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" s="2" t="s">
         <v>109</v>
       </c>
@@ -7141,23 +7347,24 @@
       <c r="D205" s="2">
         <v>1</v>
       </c>
-      <c r="G205" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H205" s="4">
+      <c r="G205" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H205" s="5">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A204:D1118,2,FALSE)</f>
-        <v>377</v>
-      </c>
-      <c r="I205" s="4">
+        <v>0</v>
+      </c>
+      <c r="I205" s="5">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A204:D1118,3,FALSE)</f>
-        <v>0.12549933791160583</v>
-      </c>
-      <c r="K205" s="4">
+        <v>0</v>
+      </c>
+      <c r="J205" s="4">
         <f>COUNTIFS(A205:A1118,G205,D205:D1118,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:11">
+      <c r="M205" s="9"/>
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" s="2" t="s">
         <v>110</v>
       </c>
@@ -7170,23 +7377,24 @@
       <c r="D206" s="2">
         <v>1</v>
       </c>
-      <c r="G206" s="4" t="s">
-        <v>110</v>
+      <c r="G206" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="H206" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A205:D1119,2,FALSE)</f>
-        <v>605</v>
+        <v>159</v>
       </c>
       <c r="I206" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A205:D1119,3,FALSE)</f>
-        <v>0.20139813423156738</v>
-      </c>
-      <c r="K206" s="4">
+        <v>0</v>
+      </c>
+      <c r="J206" s="4">
         <f>COUNTIFS(A206:A1119,G206,D206:D1119,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:11">
+      <c r="M206" s="9"/>
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" s="2" t="s">
         <v>31</v>
       </c>
@@ -7199,23 +7407,24 @@
       <c r="D207" s="2">
         <v>0</v>
       </c>
-      <c r="G207" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H207" s="4">
+      <c r="G207" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H207" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A206:D1120,2,FALSE)</f>
-        <v>434</v>
-      </c>
-      <c r="I207" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I207" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A206:D1120,3,FALSE)</f>
-        <v>0.14447402954101563</v>
-      </c>
-      <c r="K207" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J207" s="4">
         <f>COUNTIFS(A207:A1120,G207,D207:D1120,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:11">
+      <c r="M207" s="9"/>
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" s="2" t="s">
         <v>67</v>
       </c>
@@ -7228,23 +7437,24 @@
       <c r="D208" s="2">
         <v>0</v>
       </c>
-      <c r="G208" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H208" s="4">
+      <c r="G208" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H208" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A207:D1121,2,FALSE)</f>
-        <v>98</v>
-      </c>
-      <c r="I208" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I208" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A207:D1121,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K208" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J208" s="4">
         <f>COUNTIFS(A208:A1121,G208,D208:D1121,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:11">
+      <c r="M208" s="9"/>
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" s="2" t="s">
         <v>11</v>
       </c>
@@ -7257,23 +7467,24 @@
       <c r="D209" s="2">
         <v>0</v>
       </c>
-      <c r="G209" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H209" s="4">
+      <c r="G209" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H209" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A208:D1122,2,FALSE)</f>
-        <v>67</v>
-      </c>
-      <c r="I209" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I209" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A208:D1122,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K209" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J209" s="4">
         <f>COUNTIFS(A209:A1122,G209,D209:D1122,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:11">
+      <c r="M209" s="9"/>
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" s="2" t="s">
         <v>42</v>
       </c>
@@ -7286,23 +7497,24 @@
       <c r="D210" s="2">
         <v>0</v>
       </c>
-      <c r="G210" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H210" s="4">
+      <c r="G210" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H210" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A209:D1123,2,FALSE)</f>
-        <v>128</v>
-      </c>
-      <c r="I210" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I210" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A209:D1123,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K210" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J210" s="4">
         <f>COUNTIFS(A210:A1123,G210,D210:D1123,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:11">
+      <c r="M210" s="9"/>
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" s="2" t="s">
         <v>111</v>
       </c>
@@ -7315,23 +7527,24 @@
       <c r="D211" s="2">
         <v>0</v>
       </c>
-      <c r="G211" s="4" t="s">
-        <v>130</v>
+      <c r="G211" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="H211" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A210:D1124,2,FALSE)</f>
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="I211" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A210:D1124,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K211" s="4">
+      <c r="J211" s="4">
         <f>COUNTIFS(A211:A1124,G211,D211:D1124,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:11">
+      <c r="M211" s="9"/>
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" s="2" t="s">
         <v>21</v>
       </c>
@@ -7340,23 +7553,24 @@
       <c r="D212" s="2">
         <v>1</v>
       </c>
-      <c r="G212" s="4" t="s">
-        <v>131</v>
+      <c r="G212" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="H212" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A211:D1125,2,FALSE)</f>
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="I212" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A211:D1125,3,FALSE)</f>
-        <v>0.10885486006736755</v>
-      </c>
-      <c r="K212" s="4">
+        <v>0</v>
+      </c>
+      <c r="J212" s="4">
         <f>COUNTIFS(A212:A1125,G212,D212:D1125,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:11">
+      <c r="M212" s="9"/>
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" s="2" t="s">
         <v>112</v>
       </c>
@@ -7365,23 +7579,24 @@
       <c r="D213" s="2">
         <v>1</v>
       </c>
-      <c r="G213" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H213" s="4">
+      <c r="G213" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H213" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A212:D1126,2,FALSE)</f>
-        <v>429</v>
-      </c>
-      <c r="I213" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I213" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A212:D1126,3,FALSE)</f>
-        <v>0.14280958473682404</v>
-      </c>
-      <c r="K213" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J213" s="4">
         <f>COUNTIFS(A213:A1126,G213,D213:D1126,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:11">
+      <c r="M213" s="9"/>
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" s="2" t="s">
         <v>5</v>
       </c>
@@ -7394,23 +7609,24 @@
       <c r="D214" s="2">
         <v>1</v>
       </c>
-      <c r="G214" s="4" t="s">
-        <v>137</v>
+      <c r="G214" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="H214" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A213:D1127,2,FALSE)</f>
-        <v>847</v>
+        <v>180</v>
       </c>
       <c r="I214" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A213:D1127,3,FALSE)</f>
-        <v>0.28195738792419434</v>
-      </c>
-      <c r="K214" s="4">
+        <v>0</v>
+      </c>
+      <c r="J214" s="4">
         <f>COUNTIFS(A214:A1127,G214,D214:D1127,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:11">
+      <c r="M214" s="9"/>
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215" s="2" t="s">
         <v>19</v>
       </c>
@@ -7423,23 +7639,24 @@
       <c r="D215" s="2">
         <v>1</v>
       </c>
-      <c r="G215" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H215" s="4">
+      <c r="G215" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H215" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A214:D1128,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I215" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I215" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A214:D1128,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K215" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J215" s="4">
         <f>COUNTIFS(A215:A1128,G215,D215:D1128,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:11">
+      <c r="M215" s="9"/>
+    </row>
+    <row r="216" spans="1:13">
       <c r="A216" s="2" t="s">
         <v>6</v>
       </c>
@@ -7452,8 +7669,8 @@
       <c r="D216" s="2">
         <v>0</v>
       </c>
-      <c r="G216" s="4" t="s">
-        <v>140</v>
+      <c r="G216" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="H216" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A215:D1129,2,FALSE)</f>
@@ -7463,12 +7680,13 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A215:D1129,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K216" s="4">
+      <c r="J216" s="4">
         <f>COUNTIFS(A216:A1129,G216,D216:D1129,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:11">
+      <c r="M216" s="9"/>
+    </row>
+    <row r="217" spans="1:13">
       <c r="A217" s="2" t="s">
         <v>74</v>
       </c>
@@ -7481,23 +7699,24 @@
       <c r="D217" s="2">
         <v>0</v>
       </c>
-      <c r="G217" s="4" t="s">
-        <v>141</v>
+      <c r="G217" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="H217" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A216:D1130,2,FALSE)</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="I217" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A216:D1130,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K217" s="4">
+      <c r="J217" s="4">
         <f>COUNTIFS(A217:A1130,G217,D217:D1130,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:11">
+      <c r="M217" s="9"/>
+    </row>
+    <row r="218" spans="1:13">
       <c r="A218" s="2" t="s">
         <v>113</v>
       </c>
@@ -7510,23 +7729,24 @@
       <c r="D218" s="2">
         <v>1</v>
       </c>
-      <c r="G218" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H218" s="4">
+      <c r="G218" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H218" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A217:D1131,2,FALSE)</f>
-        <v>286</v>
-      </c>
-      <c r="I218" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I218" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A217:D1131,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K218" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J218" s="4">
         <f>COUNTIFS(A218:A1131,G218,D218:D1131,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:11">
+      <c r="M218" s="9"/>
+    </row>
+    <row r="219" spans="1:13">
       <c r="A219" s="2" t="s">
         <v>7</v>
       </c>
@@ -7539,23 +7759,24 @@
       <c r="D219" s="2">
         <v>0</v>
       </c>
-      <c r="G219" s="4" t="s">
-        <v>151</v>
+      <c r="G219" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="H219" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A218:D1132,2,FALSE)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I219" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A218:D1132,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K219" s="4">
+      <c r="J219" s="4">
         <f>COUNTIFS(A219:A1132,G219,D219:D1132,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:11">
+      <c r="M219" s="9"/>
+    </row>
+    <row r="220" spans="1:13">
       <c r="A220" s="2" t="s">
         <v>114</v>
       </c>
@@ -7568,23 +7789,24 @@
       <c r="D220" s="2">
         <v>0</v>
       </c>
-      <c r="G220" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H220" s="4">
+      <c r="G220" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H220" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A219:D1133,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I220" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I220" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A219:D1133,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K220" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J220" s="4">
         <f>COUNTIFS(A220:A1133,G220,D220:D1133,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:11">
+      <c r="M220" s="9"/>
+    </row>
+    <row r="221" spans="1:13">
       <c r="A221" s="2" t="s">
         <v>9</v>
       </c>
@@ -7597,23 +7819,24 @@
       <c r="D221" s="2">
         <v>0</v>
       </c>
-      <c r="G221" s="4" t="s">
-        <v>158</v>
+      <c r="G221" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="H221" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A220:D1134,2,FALSE)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I221" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A220:D1134,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K221" s="4">
+      <c r="J221" s="4">
         <f>COUNTIFS(A221:A1134,G221,D221:D1134,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:11">
+      <c r="M221" s="9"/>
+    </row>
+    <row r="222" spans="1:13">
       <c r="A222" s="2" t="s">
         <v>115</v>
       </c>
@@ -7626,23 +7849,24 @@
       <c r="D222" s="2">
         <v>0</v>
       </c>
-      <c r="G222" s="4" t="s">
-        <v>159</v>
+      <c r="G222" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="H222" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A221:D1135,2,FALSE)</f>
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I222" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A221:D1135,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K222" s="4">
+      <c r="J222" s="4">
         <f>COUNTIFS(A222:A1135,G222,D222:D1135,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:11">
+      <c r="M222" s="9"/>
+    </row>
+    <row r="223" spans="1:13">
       <c r="A223" s="2" t="s">
         <v>89</v>
       </c>
@@ -7655,23 +7879,24 @@
       <c r="D223" s="2">
         <v>0</v>
       </c>
-      <c r="G223" s="4" t="s">
-        <v>160</v>
+      <c r="G223" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="H223" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A222:D1136,2,FALSE)</f>
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="I223" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A222:D1136,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K223" s="4">
+        <v>0.10885486006736755</v>
+      </c>
+      <c r="J223" s="4">
         <f>COUNTIFS(A223:A1136,G223,D223:D1136,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:11">
+      <c r="M223" s="9"/>
+    </row>
+    <row r="224" spans="1:13">
       <c r="A224" s="2" t="s">
         <v>31</v>
       </c>
@@ -7684,23 +7909,24 @@
       <c r="D224" s="2">
         <v>0</v>
       </c>
-      <c r="G224" s="4" t="s">
-        <v>182</v>
+      <c r="G224" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="H224" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A223:D1137,2,FALSE)</f>
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="I224" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A223:D1137,3,FALSE)</f>
-        <v>0.30459386100000002</v>
-      </c>
-      <c r="K224" s="4">
+        <v>0</v>
+      </c>
+      <c r="J224" s="4">
         <f>COUNTIFS(A224:A1137,G224,D224:D1137,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:11">
+      <c r="M224" s="9"/>
+    </row>
+    <row r="225" spans="1:13">
       <c r="A225" s="2" t="s">
         <v>116</v>
       </c>
@@ -7713,23 +7939,24 @@
       <c r="D225" s="2">
         <v>0</v>
       </c>
-      <c r="G225" s="4" t="s">
-        <v>183</v>
+      <c r="G225" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="H225" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A224:D1138,2,FALSE)</f>
-        <v>1124</v>
+        <v>0</v>
       </c>
       <c r="I225" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A224:D1138,3,FALSE)</f>
-        <v>0.37416777000000001</v>
-      </c>
-      <c r="K225" s="4">
+        <v>0</v>
+      </c>
+      <c r="J225" s="4">
         <f>COUNTIFS(A225:A1138,G225,D225:D1138,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:11">
+      <c r="M225" s="9"/>
+    </row>
+    <row r="226" spans="1:13">
       <c r="A226" s="2" t="s">
         <v>13</v>
       </c>
@@ -7742,23 +7969,24 @@
       <c r="D226" s="2">
         <v>0</v>
       </c>
-      <c r="G226" s="4" t="s">
-        <v>189</v>
+      <c r="G226" s="9" t="s">
+        <v>263</v>
       </c>
       <c r="H226" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A225:D1139,2,FALSE)</f>
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="I226" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A225:D1139,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K226" s="4">
+      <c r="J226" s="4">
         <f>COUNTIFS(A226:A1139,G226,D226:D1139,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:11">
+      <c r="M226" s="9"/>
+    </row>
+    <row r="227" spans="1:13">
       <c r="A227" s="2" t="s">
         <v>117</v>
       </c>
@@ -7771,23 +7999,24 @@
       <c r="D227" s="2">
         <v>0</v>
       </c>
-      <c r="G227" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H227" s="4">
+      <c r="G227" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H227" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A226:D1140,2,FALSE)</f>
-        <v>158</v>
-      </c>
-      <c r="I227" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I227" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A226:D1140,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K227" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J227" s="4">
         <f>COUNTIFS(A227:A1140,G227,D227:D1140,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:11">
+      <c r="M227" s="9"/>
+    </row>
+    <row r="228" spans="1:13">
       <c r="A228" s="2" t="s">
         <v>42</v>
       </c>
@@ -7800,23 +8029,24 @@
       <c r="D228" s="2">
         <v>0</v>
       </c>
-      <c r="G228" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H228" s="4">
+      <c r="G228" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A227:D1141,2,FALSE)</f>
-        <v>180</v>
-      </c>
-      <c r="I228" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I228" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A227:D1141,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K228" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J228" s="4">
         <f>COUNTIFS(A228:A1141,G228,D228:D1141,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:11">
+      <c r="M228" s="9"/>
+    </row>
+    <row r="229" spans="1:13">
       <c r="A229" s="2" t="s">
         <v>15</v>
       </c>
@@ -7829,23 +8059,24 @@
       <c r="D229" s="2">
         <v>0</v>
       </c>
-      <c r="G229" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H229" s="4">
+      <c r="G229" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H229" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A228:D1142,2,FALSE)</f>
-        <v>622</v>
-      </c>
-      <c r="I229" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I229" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A228:D1142,3,FALSE)</f>
-        <v>0.207057253</v>
-      </c>
-      <c r="K229" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J229" s="4">
         <f>COUNTIFS(A229:A1142,G229,D229:D1142,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:11">
+      <c r="M229" s="9"/>
+    </row>
+    <row r="230" spans="1:13">
       <c r="A230" s="2" t="s">
         <v>59</v>
       </c>
@@ -7858,23 +8089,24 @@
       <c r="D230" s="2">
         <v>0</v>
       </c>
-      <c r="G230" s="4" t="s">
-        <v>225</v>
+      <c r="G230" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="H230" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A229:D1143,2,FALSE)</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="I230" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A229:D1143,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K230" s="4">
+      <c r="J230" s="4">
         <f>COUNTIFS(A230:A1143,G230,D230:D1143,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:11">
+      <c r="M230" s="9"/>
+    </row>
+    <row r="231" spans="1:13">
       <c r="A231" s="2" t="s">
         <v>60</v>
       </c>
@@ -7887,23 +8119,24 @@
       <c r="D231" s="2">
         <v>0</v>
       </c>
-      <c r="G231" s="4" t="s">
-        <v>226</v>
+      <c r="G231" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="H231" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A230:D1144,2,FALSE)</f>
-        <v>208</v>
+        <v>1124</v>
       </c>
       <c r="I231" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A230:D1144,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K231" s="4">
+        <v>0.37416777000000001</v>
+      </c>
+      <c r="J231" s="4">
         <f>COUNTIFS(A231:A1144,G231,D231:D1144,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:11">
+      <c r="M231" s="9"/>
+    </row>
+    <row r="232" spans="1:13">
       <c r="A232" s="2" t="s">
         <v>118</v>
       </c>
@@ -7916,23 +8149,24 @@
       <c r="D232" s="2">
         <v>0</v>
       </c>
-      <c r="G232" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H232" s="4">
+      <c r="G232" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H232" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A231:D1145,2,FALSE)</f>
-        <v>96</v>
-      </c>
-      <c r="I232" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I232" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A231:D1145,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K232" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J232" s="4">
         <f>COUNTIFS(A232:A1145,G232,D232:D1145,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:11">
+      <c r="M232" s="9"/>
+    </row>
+    <row r="233" spans="1:13">
       <c r="A233" s="2" t="s">
         <v>17</v>
       </c>
@@ -7945,23 +8179,24 @@
       <c r="D233" s="2">
         <v>0</v>
       </c>
-      <c r="G233" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H233" s="4">
+      <c r="G233" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H233" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A232:D1146,2,FALSE)</f>
-        <v>194</v>
-      </c>
-      <c r="I233" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I233" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A232:D1146,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K233" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J233" s="4">
         <f>COUNTIFS(A233:A1146,G233,D233:D1146,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:11">
+      <c r="M233" s="9"/>
+    </row>
+    <row r="234" spans="1:13">
       <c r="A234" s="2" t="s">
         <v>77</v>
       </c>
@@ -7974,23 +8209,24 @@
       <c r="D234" s="2">
         <v>0</v>
       </c>
-      <c r="G234" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="H234" s="4">
+      <c r="G234" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H234" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A233:D1147,2,FALSE)</f>
-        <v>288</v>
-      </c>
-      <c r="I234" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I234" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A233:D1147,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K234" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J234" s="4">
         <f>COUNTIFS(A234:A1147,G234,D234:D1147,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:11">
+      <c r="M234" s="9"/>
+    </row>
+    <row r="235" spans="1:13">
       <c r="A235" s="2" t="s">
         <v>83</v>
       </c>
@@ -8003,23 +8239,24 @@
       <c r="D235" s="2">
         <v>0</v>
       </c>
-      <c r="G235" s="4" t="s">
-        <v>232</v>
+      <c r="G235" s="9" t="s">
+        <v>223</v>
       </c>
       <c r="H235" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A234:D1148,2,FALSE)</f>
-        <v>345</v>
+        <v>622</v>
       </c>
       <c r="I235" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A234:D1148,3,FALSE)</f>
-        <v>0.11484687</v>
-      </c>
-      <c r="K235" s="4">
+        <v>0.207057253</v>
+      </c>
+      <c r="J235" s="4">
         <f>COUNTIFS(A235:A1148,G235,D235:D1148,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:11">
+      <c r="M235" s="9"/>
+    </row>
+    <row r="236" spans="1:13">
       <c r="A236" s="2" t="s">
         <v>119</v>
       </c>
@@ -8032,23 +8269,24 @@
       <c r="D236" s="2">
         <v>0</v>
       </c>
-      <c r="G236" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H236" s="4">
+      <c r="G236" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H236" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A235:D1149,2,FALSE)</f>
-        <v>539</v>
-      </c>
-      <c r="I236" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I236" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A235:D1149,3,FALSE)</f>
-        <v>0.17942743</v>
-      </c>
-      <c r="K236" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J236" s="4">
         <f>COUNTIFS(A236:A1149,G236,D236:D1149,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:11">
+      <c r="M236" s="9"/>
+    </row>
+    <row r="237" spans="1:13">
       <c r="A237" s="2" t="s">
         <v>120</v>
       </c>
@@ -8061,23 +8299,24 @@
       <c r="D237" s="2">
         <v>0</v>
       </c>
-      <c r="G237" s="4" t="s">
-        <v>234</v>
+      <c r="G237" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="H237" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A236:D1150,2,FALSE)</f>
-        <v>1146</v>
+        <v>286</v>
       </c>
       <c r="I237" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A236:D1150,3,FALSE)</f>
-        <v>0.38149133299999999</v>
-      </c>
-      <c r="K237" s="4">
+        <v>0</v>
+      </c>
+      <c r="J237" s="4">
         <f>COUNTIFS(A237:A1150,G237,D237:D1150,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:11">
+      <c r="M237" s="9"/>
+    </row>
+    <row r="238" spans="1:13">
       <c r="A238" s="2" t="s">
         <v>121</v>
       </c>
@@ -8090,8 +8329,8 @@
       <c r="D238" s="2">
         <v>0</v>
       </c>
-      <c r="G238" s="4" t="s">
-        <v>236</v>
+      <c r="G238" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="H238" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A237:D1151,2,FALSE)</f>
@@ -8101,12 +8340,13 @@
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A237:D1151,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K238" s="4">
+      <c r="J238" s="4">
         <f>COUNTIFS(A238:A1151,G238,D238:D1151,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:11">
+      <c r="M238" s="9"/>
+    </row>
+    <row r="239" spans="1:13">
       <c r="A239" s="2" t="s">
         <v>113</v>
       </c>
@@ -8115,23 +8355,24 @@
       <c r="D239" s="2">
         <v>1</v>
       </c>
-      <c r="G239" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H239" s="4">
+      <c r="G239" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H239" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A238:D1152,2,FALSE)</f>
-        <v>76</v>
-      </c>
-      <c r="I239" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I239" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A238:D1152,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K239" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J239" s="4">
         <f>COUNTIFS(A239:A1152,G239,D239:D1152,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:11">
+      <c r="M239" s="9"/>
+    </row>
+    <row r="240" spans="1:13">
       <c r="A240" s="2" t="s">
         <v>7</v>
       </c>
@@ -8144,23 +8385,24 @@
       <c r="D240" s="2">
         <v>0</v>
       </c>
-      <c r="G240" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H240" s="4">
+      <c r="G240" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H240" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A239:D1153,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I240" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I240" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A239:D1153,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K240" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J240" s="4">
         <f>COUNTIFS(A240:A1153,G240,D240:D1153,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:11">
+      <c r="M240" s="9"/>
+    </row>
+    <row r="241" spans="1:13">
       <c r="A241" s="2" t="s">
         <v>122</v>
       </c>
@@ -8173,23 +8415,24 @@
       <c r="D241" s="2">
         <v>1</v>
       </c>
-      <c r="G241" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H241" s="4">
+      <c r="G241" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H241" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A240:D1154,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I241" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="I241" s="4" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A240:D1154,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K241" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J241" s="4">
         <f>COUNTIFS(A241:A1154,G241,D241:D1154,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:11">
+      <c r="M241" s="9"/>
+    </row>
+    <row r="242" spans="1:13">
       <c r="A242" s="2" t="s">
         <v>115</v>
       </c>
@@ -8202,23 +8445,24 @@
       <c r="D242" s="2">
         <v>0</v>
       </c>
-      <c r="G242" s="4" t="s">
-        <v>244</v>
+      <c r="G242" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="H242" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A241:D1155,2,FALSE)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I242" s="4">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A241:D1155,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="K242" s="4">
+      <c r="J242" s="4">
         <f>COUNTIFS(A242:A1155,G242,D242:D1155,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:11">
+      <c r="M242" s="9"/>
+    </row>
+    <row r="243" spans="1:13">
       <c r="A243" s="2" t="s">
         <v>123</v>
       </c>
@@ -8231,24 +8475,24 @@
       <c r="D243" s="2">
         <v>0</v>
       </c>
-      <c r="G243" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="H243" s="5">
+      <c r="G243" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H243" s="9" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A242:D1156,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I243" s="5">
+        <v>#N/A</v>
+      </c>
+      <c r="I243" s="9" t="e">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A242:D1156,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J243" s="5"/>
-      <c r="K243" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="J243" s="4">
         <f>COUNTIFS(A243:A1156,G243,D243:D1156,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:11">
+      <c r="M243" s="9"/>
+    </row>
+    <row r="244" spans="1:13">
       <c r="A244" s="2" t="s">
         <v>57</v>
       </c>
@@ -8261,24 +8505,24 @@
       <c r="D244" s="2">
         <v>0</v>
       </c>
-      <c r="G244" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H244" s="5">
+      <c r="G244" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H244" s="9">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A243:D1157,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I244" s="5">
+        <v>288</v>
+      </c>
+      <c r="I244" s="9">
         <f>VLOOKUP(Table1[[#This Row],[Package name]],A243:D1157,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J244" s="5"/>
-      <c r="K244" s="4">
+      <c r="J244" s="4">
         <f>COUNTIFS(A244:A1157,G244,D244:D1157,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:11">
+      <c r="M244" s="9"/>
+    </row>
+    <row r="245" spans="1:13">
       <c r="A245" s="2" t="s">
         <v>67</v>
       </c>
@@ -8291,8 +8535,24 @@
       <c r="D245" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:11">
+      <c r="G245" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H245" s="9" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Package name]],A244:D1158,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I245" s="9" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Package name]],A244:D1158,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J245">
+        <f>COUNTIFS(A245:A1158,G245,D245:D1158,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M245" s="9"/>
+    </row>
+    <row r="246" spans="1:13">
       <c r="A246" s="2" t="s">
         <v>11</v>
       </c>
@@ -8305,8 +8565,24 @@
       <c r="D246" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:11">
+      <c r="G246" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H246" s="9">
+        <f>VLOOKUP(Table1[[#This Row],[Package name]],A245:D1159,2,FALSE)</f>
+        <v>429</v>
+      </c>
+      <c r="I246" s="9">
+        <f>VLOOKUP(Table1[[#This Row],[Package name]],A245:D1159,3,FALSE)</f>
+        <v>0.14280958473682404</v>
+      </c>
+      <c r="J246">
+        <f>COUNTIFS(A246:A1159,G246,D246:D1159,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M246" s="9"/>
+    </row>
+    <row r="247" spans="1:13">
       <c r="A247" s="2" t="s">
         <v>33</v>
       </c>
@@ -8319,8 +8595,24 @@
       <c r="D247" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:11">
+      <c r="G247" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H247" s="8">
+        <f>VLOOKUP(Table1[[#This Row],[Package name]],A246:D1160,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I247" s="8">
+        <f>VLOOKUP(Table1[[#This Row],[Package name]],A246:D1160,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <f>COUNTIFS(A247:A1160,G247,D247:D1160,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M247" s="9"/>
+    </row>
+    <row r="248" spans="1:13">
       <c r="A248" s="2" t="s">
         <v>13</v>
       </c>
@@ -8333,8 +8625,24 @@
       <c r="D248" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:11">
+      <c r="G248" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H248" s="8">
+        <f>VLOOKUP(Table1[[#This Row],[Package name]],A247:D1161,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I248" s="8">
+        <f>VLOOKUP(Table1[[#This Row],[Package name]],A247:D1161,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <f>COUNTIFS(A248:A1161,G248,D248:D1161,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M248" s="9"/>
+    </row>
+    <row r="249" spans="1:13">
       <c r="A249" s="2" t="s">
         <v>41</v>
       </c>
@@ -8347,8 +8655,24 @@
       <c r="D249" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:11">
+      <c r="G249" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H249" s="8" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Package name]],A248:D1162,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I249" s="8" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[Package name]],A248:D1162,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J249">
+        <f>COUNTIFS(A249:A1162,G249,D249:D1162,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M249" s="9"/>
+    </row>
+    <row r="250" spans="1:13">
       <c r="A250" s="2" t="s">
         <v>60</v>
       </c>
@@ -8361,8 +8685,9 @@
       <c r="D250" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:11">
+      <c r="M250" s="9"/>
+    </row>
+    <row r="251" spans="1:13">
       <c r="A251" s="2" t="s">
         <v>124</v>
       </c>
@@ -8375,8 +8700,9 @@
       <c r="D251" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:11">
+      <c r="M251" s="9"/>
+    </row>
+    <row r="252" spans="1:13">
       <c r="A252" s="2" t="s">
         <v>37</v>
       </c>
@@ -8389,8 +8715,9 @@
       <c r="D252" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:11">
+      <c r="M252" s="9"/>
+    </row>
+    <row r="253" spans="1:13">
       <c r="A253" t="s">
         <v>54</v>
       </c>
@@ -8403,8 +8730,9 @@
       <c r="D253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:11">
+      <c r="M253" s="9"/>
+    </row>
+    <row r="254" spans="1:13">
       <c r="A254" t="s">
         <v>125</v>
       </c>
@@ -8417,8 +8745,9 @@
       <c r="D254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:11">
+      <c r="M254" s="9"/>
+    </row>
+    <row r="255" spans="1:13">
       <c r="A255" t="s">
         <v>67</v>
       </c>
@@ -8431,8 +8760,9 @@
       <c r="D255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:11">
+      <c r="M255" s="9"/>
+    </row>
+    <row r="256" spans="1:13">
       <c r="A256" t="s">
         <v>42</v>
       </c>
@@ -8445,8 +8775,9 @@
       <c r="D256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="M256" s="9"/>
+    </row>
+    <row r="257" spans="1:13">
       <c r="A257" t="s">
         <v>84</v>
       </c>
@@ -8459,16 +8790,18 @@
       <c r="D257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="M257" s="9"/>
+    </row>
+    <row r="258" spans="1:13">
       <c r="A258" t="s">
         <v>126</v>
       </c>
       <c r="D258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:4">
+      <c r="M258" s="9"/>
+    </row>
+    <row r="259" spans="1:13">
       <c r="A259" s="2" t="s">
         <v>44</v>
       </c>
@@ -8481,8 +8814,9 @@
       <c r="D259" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:4">
+      <c r="M259" s="9"/>
+    </row>
+    <row r="260" spans="1:13">
       <c r="A260" s="2" t="s">
         <v>19</v>
       </c>
@@ -8495,8 +8829,9 @@
       <c r="D260" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:4">
+      <c r="M260" s="9"/>
+    </row>
+    <row r="261" spans="1:13">
       <c r="A261" s="2" t="s">
         <v>6</v>
       </c>
@@ -8509,8 +8844,9 @@
       <c r="D261" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:4">
+      <c r="M261" s="9"/>
+    </row>
+    <row r="262" spans="1:13">
       <c r="A262" s="2" t="s">
         <v>112</v>
       </c>
@@ -8523,8 +8859,9 @@
       <c r="D262" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:4">
+      <c r="M262" s="9"/>
+    </row>
+    <row r="263" spans="1:13">
       <c r="A263" s="2" t="s">
         <v>62</v>
       </c>
@@ -8537,8 +8874,9 @@
       <c r="D263" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:4">
+      <c r="M263" s="9"/>
+    </row>
+    <row r="264" spans="1:13">
       <c r="A264" s="2" t="s">
         <v>127</v>
       </c>
@@ -8552,7 +8890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:13">
       <c r="A265" s="2" t="s">
         <v>7</v>
       </c>
@@ -8566,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:13">
       <c r="A266" s="2" t="s">
         <v>128</v>
       </c>
@@ -8580,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:13">
       <c r="A267" s="2" t="s">
         <v>129</v>
       </c>
@@ -8594,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:13">
       <c r="A268" s="2" t="s">
         <v>114</v>
       </c>
@@ -8608,7 +8946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:13">
       <c r="A269" s="2" t="s">
         <v>130</v>
       </c>
@@ -8622,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:13">
       <c r="A270" s="2" t="s">
         <v>131</v>
       </c>
@@ -8636,7 +8974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:13">
       <c r="A271" s="2" t="s">
         <v>9</v>
       </c>
@@ -8650,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:13">
       <c r="A272" s="2" t="s">
         <v>132</v>
       </c>
@@ -17494,7 +17832,579 @@
         <v>0</v>
       </c>
     </row>
+    <row r="916" spans="1:4">
+      <c r="A916" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B916" s="4">
+        <v>1</v>
+      </c>
+      <c r="C916" s="4">
+        <v>0</v>
+      </c>
+      <c r="D916" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4">
+      <c r="A917" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B917" s="4">
+        <v>8</v>
+      </c>
+      <c r="C917" s="4">
+        <v>0</v>
+      </c>
+      <c r="D917" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4">
+      <c r="A918" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B918" s="4">
+        <v>31</v>
+      </c>
+      <c r="C918" s="4">
+        <v>0</v>
+      </c>
+      <c r="D918" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4">
+      <c r="A919" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B919" s="4"/>
+      <c r="C919" s="4"/>
+      <c r="D919" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4">
+      <c r="A920" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B920" s="4">
+        <v>39</v>
+      </c>
+      <c r="C920" s="4">
+        <v>0</v>
+      </c>
+      <c r="D920" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4">
+      <c r="A921" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B921" s="4">
+        <v>43</v>
+      </c>
+      <c r="C921" s="4">
+        <v>0</v>
+      </c>
+      <c r="D921" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4">
+      <c r="A922" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B922" s="4">
+        <v>95</v>
+      </c>
+      <c r="C922" s="4">
+        <v>0</v>
+      </c>
+      <c r="D922" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4">
+      <c r="A923" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B923" s="4">
+        <v>170</v>
+      </c>
+      <c r="C923" s="4">
+        <v>0</v>
+      </c>
+      <c r="D923" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4">
+      <c r="A924" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B924" s="4">
+        <v>282</v>
+      </c>
+      <c r="C924" s="4">
+        <v>0</v>
+      </c>
+      <c r="D924" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4">
+      <c r="A925" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B925" s="4">
+        <v>342</v>
+      </c>
+      <c r="C925" s="4">
+        <v>0.113848201930523</v>
+      </c>
+      <c r="D925" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4">
+      <c r="A926" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B926" s="4">
+        <v>431</v>
+      </c>
+      <c r="C926" s="4">
+        <v>0.14347536861896501</v>
+      </c>
+      <c r="D926" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4">
+      <c r="A927" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B927" s="4">
+        <v>500</v>
+      </c>
+      <c r="C927" s="4">
+        <v>0.16644473373889901</v>
+      </c>
+      <c r="D927" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4">
+      <c r="A928" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B928" s="4">
+        <v>537</v>
+      </c>
+      <c r="C928" s="4">
+        <v>0.178761646151543</v>
+      </c>
+      <c r="D928" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4">
+      <c r="A929" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B929" s="4">
+        <v>628</v>
+      </c>
+      <c r="C929" s="4">
+        <v>0.20905458927154499</v>
+      </c>
+      <c r="D929" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4">
+      <c r="A930" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B930" s="4">
+        <v>677</v>
+      </c>
+      <c r="C930" s="4">
+        <v>0.225366175174713</v>
+      </c>
+      <c r="D930" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4">
+      <c r="A931" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B931" s="4">
+        <v>678</v>
+      </c>
+      <c r="C931" s="4">
+        <v>0.225699067115784</v>
+      </c>
+      <c r="D931" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4">
+      <c r="A932" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B932" s="4">
+        <v>917</v>
+      </c>
+      <c r="C932" s="4">
+        <v>0.30525964498519897</v>
+      </c>
+      <c r="D932" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4">
+      <c r="A933" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B933" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C933" s="4">
+        <v>0.34087881445884699</v>
+      </c>
+      <c r="D933" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4">
+      <c r="A934" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B934" s="4">
+        <v>1154</v>
+      </c>
+      <c r="C934" s="4">
+        <v>0.38415446877479598</v>
+      </c>
+      <c r="D934" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4">
+      <c r="A935" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B935" s="4">
+        <v>1363</v>
+      </c>
+      <c r="C935" s="4">
+        <v>0.453728348016739</v>
+      </c>
+      <c r="D935" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4">
+      <c r="A936" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B936" s="4">
+        <v>1640</v>
+      </c>
+      <c r="C936" s="4">
+        <v>0.54593873023986805</v>
+      </c>
+      <c r="D936" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4">
+      <c r="A937" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B937" s="4">
+        <v>1688</v>
+      </c>
+      <c r="C937" s="4">
+        <v>0.561917424201965</v>
+      </c>
+      <c r="D937" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4">
+      <c r="A938" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B938" s="4">
+        <v>1976</v>
+      </c>
+      <c r="C938" s="4">
+        <v>0.65778958797454801</v>
+      </c>
+      <c r="D938" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4">
+      <c r="A939" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B939" s="4">
+        <v>2022</v>
+      </c>
+      <c r="C939" s="4">
+        <v>0.67310255765914895</v>
+      </c>
+      <c r="D939" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4">
+      <c r="A940" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B940" s="4">
+        <v>2991</v>
+      </c>
+      <c r="C940" s="4">
+        <v>0.99567246437072798</v>
+      </c>
+      <c r="D940" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4">
+      <c r="A941" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B941" s="7">
+        <v>18</v>
+      </c>
+      <c r="C941" s="7">
+        <v>0</v>
+      </c>
+      <c r="D941" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4">
+      <c r="A942" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B942" s="7">
+        <v>92</v>
+      </c>
+      <c r="C942" s="7">
+        <v>0</v>
+      </c>
+      <c r="D942" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4">
+      <c r="A943" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B943" s="7">
+        <v>1472</v>
+      </c>
+      <c r="C943" s="7">
+        <v>0.48806366324424699</v>
+      </c>
+      <c r="D943" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4">
+      <c r="A944" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B944" s="7">
+        <v>2424</v>
+      </c>
+      <c r="C944" s="7">
+        <v>0.80371350049972501</v>
+      </c>
+      <c r="D944" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5">
+      <c r="A945" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B945" s="7">
+        <v>2999</v>
+      </c>
+      <c r="C945" s="7">
+        <v>0.99436336755752597</v>
+      </c>
+      <c r="D945" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5">
+      <c r="A946" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B946" s="9">
+        <v>1</v>
+      </c>
+      <c r="C946" s="9">
+        <v>0</v>
+      </c>
+      <c r="D946" s="7">
+        <v>0</v>
+      </c>
+      <c r="E946" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5">
+      <c r="A947" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B947" s="9">
+        <v>9</v>
+      </c>
+      <c r="C947" s="9">
+        <v>0</v>
+      </c>
+      <c r="D947" s="7">
+        <v>0</v>
+      </c>
+      <c r="E947" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5">
+      <c r="A948" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B948" s="9">
+        <v>63</v>
+      </c>
+      <c r="C948" s="9">
+        <v>0</v>
+      </c>
+      <c r="D948" s="7">
+        <v>0</v>
+      </c>
+      <c r="E948" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5">
+      <c r="A949" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B949" s="9">
+        <v>88</v>
+      </c>
+      <c r="C949" s="9">
+        <v>0</v>
+      </c>
+      <c r="D949" s="7">
+        <v>0</v>
+      </c>
+      <c r="E949" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5">
+      <c r="A950" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B950" s="9">
+        <v>182</v>
+      </c>
+      <c r="C950" s="9">
+        <v>0</v>
+      </c>
+      <c r="D950" s="7">
+        <v>0</v>
+      </c>
+      <c r="E950" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5">
+      <c r="A951" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B951" s="9">
+        <v>385</v>
+      </c>
+      <c r="C951" s="9">
+        <v>0.12765252590179443</v>
+      </c>
+      <c r="D951" s="7">
+        <v>0</v>
+      </c>
+      <c r="E951" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5">
+      <c r="A952" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B952" s="9">
+        <v>566</v>
+      </c>
+      <c r="C952" s="9">
+        <v>0.18766577541828156</v>
+      </c>
+      <c r="D952" s="7">
+        <v>0</v>
+      </c>
+      <c r="E952" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5">
+      <c r="A953" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B953" s="9">
+        <v>985</v>
+      </c>
+      <c r="C953" s="9">
+        <v>0.32659152150154114</v>
+      </c>
+      <c r="D953" s="7">
+        <v>0</v>
+      </c>
+      <c r="E953" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5">
+      <c r="A954" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B954" s="9">
+        <v>1660</v>
+      </c>
+      <c r="C954" s="9">
+        <v>0.55039787292480469</v>
+      </c>
+      <c r="D954" s="7">
+        <v>0</v>
+      </c>
+      <c r="E954" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="M16:M968">
+    <sortCondition ref="M16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
